--- a/data/analysis/social_media_analytics/pivot_tables/accreditation-region/museum_activity_groups__var2-accreditation-region.xlsx
+++ b/data/analysis/social_media_analytics/pivot_tables/accreditation-region/museum_activity_groups__var2-accreditation-region.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="34">
   <si>
     <t>msg_count_twitter</t>
+  </si>
+  <si>
+    <t>msg_count_twitter_engage</t>
   </si>
   <si>
     <t>msg_count_facebook</t>
@@ -470,13 +473,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB30"/>
+  <dimension ref="A1:AO30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:41">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -508,102 +511,156 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
+      <c r="AC1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:41">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="AO2" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:41">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:41">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -636,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>-3.1</v>
+        <v>-3</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -669,313 +726,463 @@
         <v>0</v>
       </c>
       <c r="AB4">
+        <v>-3</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
         <v>-2.4</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:41">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5">
-        <v>135709</v>
+        <v>81136</v>
       </c>
       <c r="D5">
-        <v>1317.6</v>
+        <v>787.7</v>
       </c>
       <c r="E5">
-        <v>3289.7</v>
+        <v>2016.4</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>4.5</v>
       </c>
       <c r="H5">
-        <v>328</v>
+        <v>211</v>
       </c>
       <c r="I5">
-        <v>979</v>
+        <v>706</v>
       </c>
       <c r="J5">
-        <v>25152</v>
+        <v>17279</v>
       </c>
       <c r="K5">
         <v>103</v>
       </c>
       <c r="L5">
-        <v>1635</v>
+        <v>1027</v>
       </c>
       <c r="M5">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="N5">
-        <v>80.59999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="O5">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="P5">
-        <v>39679</v>
+        <v>21604</v>
       </c>
       <c r="Q5">
-        <v>385.2</v>
+        <v>209.7</v>
       </c>
       <c r="R5">
-        <v>632.5</v>
+        <v>813.7</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="V5">
-        <v>536</v>
+        <v>103</v>
       </c>
       <c r="W5">
-        <v>3252</v>
+        <v>7809</v>
       </c>
       <c r="X5">
         <v>103</v>
       </c>
       <c r="Y5">
+        <v>280.6</v>
+      </c>
+      <c r="Z5">
+        <v>77</v>
+      </c>
+      <c r="AA5">
+        <v>74.8</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5">
+        <v>39679</v>
+      </c>
+      <c r="AD5">
+        <v>385.2</v>
+      </c>
+      <c r="AE5">
+        <v>632.5</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>536</v>
+      </c>
+      <c r="AJ5">
+        <v>3252</v>
+      </c>
+      <c r="AK5">
+        <v>103</v>
+      </c>
+      <c r="AL5">
         <v>826.6</v>
       </c>
-      <c r="Z5">
+      <c r="AM5">
         <v>48</v>
       </c>
-      <c r="AA5">
+      <c r="AN5">
         <v>46.6</v>
       </c>
-      <c r="AB5">
+      <c r="AO5">
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:41">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6">
-        <v>242484</v>
+        <v>135171</v>
       </c>
       <c r="D6">
-        <v>1584.9</v>
+        <v>883.5</v>
       </c>
       <c r="E6">
-        <v>3418</v>
+        <v>1586.7</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="H6">
-        <v>360</v>
+        <v>279</v>
       </c>
       <c r="I6">
-        <v>1837</v>
+        <v>998</v>
       </c>
       <c r="J6">
-        <v>27245</v>
+        <v>14162</v>
       </c>
       <c r="K6">
         <v>153</v>
       </c>
       <c r="L6">
-        <v>1939.9</v>
+        <v>1145.5</v>
       </c>
       <c r="M6">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="N6">
-        <v>81.7</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="P6">
-        <v>42425</v>
+        <v>39934</v>
       </c>
       <c r="Q6">
-        <v>277.3</v>
+        <v>261</v>
       </c>
       <c r="R6">
-        <v>692.4</v>
+        <v>687.8</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="V6">
         <v>301</v>
       </c>
       <c r="W6">
-        <v>6335</v>
+        <v>6662</v>
       </c>
       <c r="X6">
         <v>153</v>
       </c>
       <c r="Y6">
+        <v>335.6</v>
+      </c>
+      <c r="Z6">
+        <v>119</v>
+      </c>
+      <c r="AA6">
+        <v>77.8</v>
+      </c>
+      <c r="AB6">
+        <v>1.1</v>
+      </c>
+      <c r="AC6">
+        <v>42425</v>
+      </c>
+      <c r="AD6">
+        <v>277.3</v>
+      </c>
+      <c r="AE6">
+        <v>692.4</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>301</v>
+      </c>
+      <c r="AJ6">
+        <v>6335</v>
+      </c>
+      <c r="AK6">
+        <v>153</v>
+      </c>
+      <c r="AL6">
         <v>848.5</v>
       </c>
-      <c r="Z6">
+      <c r="AM6">
         <v>50</v>
       </c>
-      <c r="AA6">
+      <c r="AN6">
         <v>32.7</v>
       </c>
-      <c r="AB6">
+      <c r="AO6">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:41">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7">
-        <v>468393</v>
+        <v>188608</v>
       </c>
       <c r="D7">
-        <v>3903.3</v>
+        <v>1571.7</v>
       </c>
       <c r="E7">
-        <v>6417.3</v>
+        <v>2403.9</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>452.5</v>
+        <v>222.2</v>
       </c>
       <c r="H7">
-        <v>1589.5</v>
+        <v>911</v>
       </c>
       <c r="I7">
-        <v>4070</v>
+        <v>1797.5</v>
       </c>
       <c r="J7">
-        <v>38400</v>
+        <v>18330</v>
       </c>
       <c r="K7">
         <v>120</v>
       </c>
       <c r="L7">
-        <v>4258.1</v>
+        <v>1944.4</v>
       </c>
       <c r="M7">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="N7">
-        <v>91.7</v>
+        <v>80.8</v>
       </c>
       <c r="O7">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="P7">
-        <v>57615</v>
+        <v>110557</v>
       </c>
       <c r="Q7">
-        <v>480.1</v>
+        <v>921.3</v>
       </c>
       <c r="R7">
-        <v>672.1</v>
+        <v>2349.7</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>40.5</v>
       </c>
       <c r="U7">
-        <v>67</v>
+        <v>223</v>
       </c>
       <c r="V7">
-        <v>803.5</v>
+        <v>532.8</v>
       </c>
       <c r="W7">
-        <v>3218</v>
+        <v>18016</v>
       </c>
       <c r="X7">
         <v>120</v>
       </c>
       <c r="Y7">
+        <v>1105.6</v>
+      </c>
+      <c r="Z7">
+        <v>100</v>
+      </c>
+      <c r="AA7">
+        <v>83.3</v>
+      </c>
+      <c r="AB7">
+        <v>1.4</v>
+      </c>
+      <c r="AC7">
+        <v>57615</v>
+      </c>
+      <c r="AD7">
+        <v>480.1</v>
+      </c>
+      <c r="AE7">
+        <v>672.1</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>67</v>
+      </c>
+      <c r="AI7">
+        <v>803.5</v>
+      </c>
+      <c r="AJ7">
+        <v>3218</v>
+      </c>
+      <c r="AK7">
+        <v>120</v>
+      </c>
+      <c r="AL7">
         <v>900.2</v>
       </c>
-      <c r="Z7">
+      <c r="AM7">
         <v>64</v>
       </c>
-      <c r="AA7">
+      <c r="AN7">
         <v>53.3</v>
       </c>
-      <c r="AB7">
+      <c r="AO7">
         <v>1.3</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:41">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8">
-        <v>144519</v>
+        <v>44255</v>
       </c>
       <c r="D8">
-        <v>2369.2</v>
+        <v>725.5</v>
       </c>
       <c r="E8">
-        <v>9582.200000000001</v>
+        <v>947</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>534</v>
+        <v>421</v>
       </c>
       <c r="I8">
-        <v>1587</v>
+        <v>1014</v>
       </c>
       <c r="J8">
-        <v>74441</v>
+        <v>4347</v>
       </c>
       <c r="K8">
         <v>61</v>
       </c>
       <c r="L8">
-        <v>3141.7</v>
+        <v>1029.2</v>
       </c>
       <c r="M8">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N8">
-        <v>75.40000000000001</v>
+        <v>70.5</v>
       </c>
       <c r="O8">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="P8">
-        <v>23390</v>
+        <v>12589</v>
       </c>
       <c r="Q8">
-        <v>383.4</v>
+        <v>206.4</v>
       </c>
       <c r="R8">
-        <v>485.2</v>
+        <v>370.9</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -984,82 +1191,121 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="V8">
-        <v>619</v>
+        <v>227</v>
       </c>
       <c r="W8">
-        <v>1611</v>
+        <v>1866</v>
       </c>
       <c r="X8">
         <v>61</v>
       </c>
       <c r="Y8">
+        <v>286.1</v>
+      </c>
+      <c r="Z8">
+        <v>44</v>
+      </c>
+      <c r="AA8">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="AB8">
+        <v>0.8</v>
+      </c>
+      <c r="AC8">
+        <v>23390</v>
+      </c>
+      <c r="AD8">
+        <v>383.4</v>
+      </c>
+      <c r="AE8">
+        <v>485.2</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>117</v>
+      </c>
+      <c r="AI8">
+        <v>619</v>
+      </c>
+      <c r="AJ8">
+        <v>1611</v>
+      </c>
+      <c r="AK8">
+        <v>61</v>
+      </c>
+      <c r="AL8">
         <v>708.8</v>
       </c>
-      <c r="Z8">
+      <c r="AM8">
         <v>33</v>
       </c>
-      <c r="AA8">
+      <c r="AN8">
         <v>54.1</v>
       </c>
-      <c r="AB8">
+      <c r="AO8">
         <v>1.3</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:41">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9">
-        <v>247884</v>
+        <v>138267</v>
       </c>
       <c r="D9">
-        <v>1849.9</v>
+        <v>1031.8</v>
       </c>
       <c r="E9">
-        <v>3057.4</v>
+        <v>1457.1</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>63.5</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>858.5</v>
+        <v>575.5</v>
       </c>
       <c r="I9">
-        <v>2110</v>
+        <v>1245.5</v>
       </c>
       <c r="J9">
-        <v>20276</v>
+        <v>7874</v>
       </c>
       <c r="K9">
         <v>134</v>
       </c>
       <c r="L9">
-        <v>2383.5</v>
+        <v>1440.3</v>
       </c>
       <c r="M9">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N9">
-        <v>77.59999999999999</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="O9">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="P9">
-        <v>72197</v>
+        <v>42330</v>
       </c>
       <c r="Q9">
-        <v>538.8</v>
+        <v>315.9</v>
       </c>
       <c r="R9">
-        <v>879.7</v>
+        <v>633.1</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1068,43 +1314,82 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>237.5</v>
+        <v>110</v>
       </c>
       <c r="V9">
-        <v>757.2</v>
+        <v>362</v>
       </c>
       <c r="W9">
-        <v>6327</v>
+        <v>5171</v>
       </c>
       <c r="X9">
         <v>134</v>
       </c>
       <c r="Y9">
+        <v>436.4</v>
+      </c>
+      <c r="Z9">
+        <v>97</v>
+      </c>
+      <c r="AA9">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="AB9">
+        <v>0.9</v>
+      </c>
+      <c r="AC9">
+        <v>72197</v>
+      </c>
+      <c r="AD9">
+        <v>538.8</v>
+      </c>
+      <c r="AE9">
+        <v>879.7</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>237.5</v>
+      </c>
+      <c r="AI9">
+        <v>757.2</v>
+      </c>
+      <c r="AJ9">
+        <v>6327</v>
+      </c>
+      <c r="AK9">
+        <v>134</v>
+      </c>
+      <c r="AL9">
         <v>937.6</v>
       </c>
-      <c r="Z9">
+      <c r="AM9">
         <v>77</v>
       </c>
-      <c r="AA9">
+      <c r="AN9">
         <v>57.5</v>
       </c>
-      <c r="AB9">
+      <c r="AO9">
         <v>1.6</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:41">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10">
-        <v>71818</v>
+        <v>27470</v>
       </c>
       <c r="D10">
-        <v>1751.7</v>
+        <v>670</v>
       </c>
       <c r="E10">
-        <v>4571.3</v>
+        <v>2327.7</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1113,37 +1398,37 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1073</v>
+        <v>582</v>
       </c>
       <c r="J10">
-        <v>25383</v>
+        <v>14888</v>
       </c>
       <c r="K10">
         <v>41</v>
       </c>
       <c r="L10">
-        <v>2992.4</v>
+        <v>1445.8</v>
       </c>
       <c r="M10">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N10">
-        <v>58.5</v>
+        <v>46.3</v>
       </c>
       <c r="O10">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="P10">
-        <v>19162</v>
+        <v>13077</v>
       </c>
       <c r="Q10">
-        <v>467.4</v>
+        <v>319</v>
       </c>
       <c r="R10">
-        <v>1337.5</v>
+        <v>1623.2</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1155,40 +1440,79 @@
         <v>0</v>
       </c>
       <c r="V10">
-        <v>492</v>
+        <v>70</v>
       </c>
       <c r="W10">
-        <v>6887</v>
+        <v>10421</v>
       </c>
       <c r="X10">
         <v>41</v>
       </c>
       <c r="Y10">
+        <v>653.8</v>
+      </c>
+      <c r="Z10">
+        <v>20</v>
+      </c>
+      <c r="AA10">
+        <v>48.8</v>
+      </c>
+      <c r="AB10">
+        <v>-0.4</v>
+      </c>
+      <c r="AC10">
+        <v>19162</v>
+      </c>
+      <c r="AD10">
+        <v>467.4</v>
+      </c>
+      <c r="AE10">
+        <v>1337.5</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>492</v>
+      </c>
+      <c r="AJ10">
+        <v>6887</v>
+      </c>
+      <c r="AK10">
+        <v>41</v>
+      </c>
+      <c r="AL10">
         <v>1474</v>
       </c>
-      <c r="Z10">
+      <c r="AM10">
         <v>13</v>
       </c>
-      <c r="AA10">
+      <c r="AN10">
         <v>31.7</v>
       </c>
-      <c r="AB10">
+      <c r="AO10">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:41">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11">
-        <v>464924</v>
+        <v>234286</v>
       </c>
       <c r="D11">
-        <v>1844.9</v>
+        <v>929.7</v>
       </c>
       <c r="E11">
-        <v>6168.3</v>
+        <v>3274.8</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1197,37 +1521,37 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>113.5</v>
+        <v>71.5</v>
       </c>
       <c r="I11">
-        <v>1516.8</v>
+        <v>892.2</v>
       </c>
       <c r="J11">
-        <v>68140</v>
+        <v>47580</v>
       </c>
       <c r="K11">
         <v>252</v>
       </c>
       <c r="L11">
-        <v>2942.6</v>
+        <v>1604.7</v>
       </c>
       <c r="M11">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="N11">
-        <v>62.7</v>
+        <v>57.9</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P11">
-        <v>72603</v>
+        <v>72326</v>
       </c>
       <c r="Q11">
-        <v>288.1</v>
+        <v>287</v>
       </c>
       <c r="R11">
-        <v>670.1</v>
+        <v>1087.4</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1236,127 +1560,205 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V11">
-        <v>345.2</v>
+        <v>194.8</v>
       </c>
       <c r="W11">
-        <v>6448</v>
+        <v>9692</v>
       </c>
       <c r="X11">
         <v>252</v>
       </c>
       <c r="Y11">
+        <v>495.4</v>
+      </c>
+      <c r="Z11">
+        <v>146</v>
+      </c>
+      <c r="AA11">
+        <v>57.9</v>
+      </c>
+      <c r="AB11">
+        <v>0.1</v>
+      </c>
+      <c r="AC11">
+        <v>72603</v>
+      </c>
+      <c r="AD11">
+        <v>288.1</v>
+      </c>
+      <c r="AE11">
+        <v>670.1</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>345.2</v>
+      </c>
+      <c r="AJ11">
+        <v>6448</v>
+      </c>
+      <c r="AK11">
+        <v>252</v>
+      </c>
+      <c r="AL11">
         <v>942.9</v>
       </c>
-      <c r="Z11">
+      <c r="AM11">
         <v>77</v>
       </c>
-      <c r="AA11">
+      <c r="AN11">
         <v>30.6</v>
       </c>
-      <c r="AB11">
+      <c r="AO11">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:41">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12">
-        <v>509043</v>
+        <v>271557</v>
       </c>
       <c r="D12">
-        <v>2222.9</v>
+        <v>1185.8</v>
       </c>
       <c r="E12">
-        <v>5946.7</v>
+        <v>3308.3</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="H12">
-        <v>528</v>
+        <v>388</v>
       </c>
       <c r="I12">
-        <v>1846</v>
+        <v>1127</v>
       </c>
       <c r="J12">
-        <v>60386</v>
+        <v>43003</v>
       </c>
       <c r="K12">
         <v>229</v>
       </c>
       <c r="L12">
-        <v>2751.6</v>
+        <v>1542.9</v>
       </c>
       <c r="M12">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="N12">
-        <v>80.8</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="P12">
-        <v>77502</v>
+        <v>114720</v>
       </c>
       <c r="Q12">
-        <v>338.4</v>
+        <v>501</v>
       </c>
       <c r="R12">
-        <v>617.3</v>
+        <v>3166.2</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="V12">
-        <v>492</v>
+        <v>263</v>
       </c>
       <c r="W12">
-        <v>4996</v>
+        <v>46992</v>
       </c>
       <c r="X12">
         <v>229</v>
       </c>
       <c r="Y12">
+        <v>651.8</v>
+      </c>
+      <c r="Z12">
+        <v>176</v>
+      </c>
+      <c r="AA12">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="AB12">
+        <v>1.1</v>
+      </c>
+      <c r="AC12">
+        <v>77502</v>
+      </c>
+      <c r="AD12">
+        <v>338.4</v>
+      </c>
+      <c r="AE12">
+        <v>617.3</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>492</v>
+      </c>
+      <c r="AJ12">
+        <v>4996</v>
+      </c>
+      <c r="AK12">
+        <v>229</v>
+      </c>
+      <c r="AL12">
         <v>799</v>
       </c>
-      <c r="Z12">
+      <c r="AM12">
         <v>97</v>
       </c>
-      <c r="AA12">
+      <c r="AN12">
         <v>42.4</v>
       </c>
-      <c r="AB12">
+      <c r="AO12">
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:41">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13">
-        <v>154193</v>
+        <v>121016</v>
       </c>
       <c r="D13">
-        <v>782.7</v>
+        <v>614.3</v>
       </c>
       <c r="E13">
-        <v>1346.4</v>
+        <v>994.7</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1365,37 +1767,37 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>274</v>
+        <v>205</v>
       </c>
       <c r="I13">
-        <v>947</v>
+        <v>823</v>
       </c>
       <c r="J13">
-        <v>10420</v>
+        <v>8769</v>
       </c>
       <c r="K13">
         <v>197</v>
       </c>
       <c r="L13">
-        <v>1063.4</v>
+        <v>864.4</v>
       </c>
       <c r="M13">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="N13">
-        <v>73.59999999999999</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="O13">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="P13">
-        <v>61279</v>
+        <v>31650</v>
       </c>
       <c r="Q13">
-        <v>311.1</v>
+        <v>160.7</v>
       </c>
       <c r="R13">
-        <v>563.2</v>
+        <v>580.2</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -1404,43 +1806,82 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="V13">
-        <v>520</v>
+        <v>139</v>
       </c>
       <c r="W13">
-        <v>3100</v>
+        <v>7636</v>
       </c>
       <c r="X13">
         <v>197</v>
       </c>
       <c r="Y13">
+        <v>224.5</v>
+      </c>
+      <c r="Z13">
+        <v>141</v>
+      </c>
+      <c r="AA13">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="AB13">
+        <v>0.8</v>
+      </c>
+      <c r="AC13">
+        <v>61279</v>
+      </c>
+      <c r="AD13">
+        <v>311.1</v>
+      </c>
+      <c r="AE13">
+        <v>563.2</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>520</v>
+      </c>
+      <c r="AJ13">
+        <v>3100</v>
+      </c>
+      <c r="AK13">
+        <v>197</v>
+      </c>
+      <c r="AL13">
         <v>839.4</v>
       </c>
-      <c r="Z13">
+      <c r="AM13">
         <v>73</v>
       </c>
-      <c r="AA13">
+      <c r="AN13">
         <v>37.1</v>
       </c>
-      <c r="AB13">
+      <c r="AO13">
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:41">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14">
-        <v>186944</v>
+        <v>61363</v>
       </c>
       <c r="D14">
-        <v>1850.9</v>
+        <v>607.6</v>
       </c>
       <c r="E14">
-        <v>4618</v>
+        <v>1033.9</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1449,37 +1890,37 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>278</v>
+        <v>139</v>
       </c>
       <c r="I14">
-        <v>1315</v>
+        <v>791</v>
       </c>
       <c r="J14">
-        <v>30621</v>
+        <v>5793</v>
       </c>
       <c r="K14">
         <v>101</v>
       </c>
       <c r="L14">
-        <v>2709.3</v>
+        <v>1006</v>
       </c>
       <c r="M14">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="N14">
-        <v>68.3</v>
+        <v>60.4</v>
       </c>
       <c r="O14">
         <v>0.3</v>
       </c>
       <c r="P14">
-        <v>63873</v>
+        <v>11708</v>
       </c>
       <c r="Q14">
-        <v>632.4</v>
+        <v>115.9</v>
       </c>
       <c r="R14">
-        <v>1610.8</v>
+        <v>232.2</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -1488,82 +1929,121 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="V14">
-        <v>602</v>
+        <v>144</v>
       </c>
       <c r="W14">
-        <v>13336</v>
+        <v>1312</v>
       </c>
       <c r="X14">
         <v>101</v>
       </c>
       <c r="Y14">
+        <v>188.8</v>
+      </c>
+      <c r="Z14">
+        <v>62</v>
+      </c>
+      <c r="AA14">
+        <v>61.4</v>
+      </c>
+      <c r="AB14">
+        <v>0.3</v>
+      </c>
+      <c r="AC14">
+        <v>63873</v>
+      </c>
+      <c r="AD14">
+        <v>632.4</v>
+      </c>
+      <c r="AE14">
+        <v>1610.8</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>52</v>
+      </c>
+      <c r="AI14">
+        <v>602</v>
+      </c>
+      <c r="AJ14">
+        <v>13336</v>
+      </c>
+      <c r="AK14">
+        <v>101</v>
+      </c>
+      <c r="AL14">
         <v>1252.4</v>
       </c>
-      <c r="Z14">
+      <c r="AM14">
         <v>51</v>
       </c>
-      <c r="AA14">
+      <c r="AN14">
         <v>50.5</v>
       </c>
-      <c r="AB14">
+      <c r="AO14">
         <v>1.1</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:41">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15">
-        <v>265879</v>
+        <v>119162</v>
       </c>
       <c r="D15">
-        <v>2110.2</v>
+        <v>945.7</v>
       </c>
       <c r="E15">
-        <v>5218.2</v>
+        <v>2308.9</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>405.5</v>
+        <v>210.5</v>
       </c>
       <c r="I15">
-        <v>1815</v>
+        <v>1155</v>
       </c>
       <c r="J15">
-        <v>38597</v>
+        <v>18330</v>
       </c>
       <c r="K15">
         <v>126</v>
       </c>
       <c r="L15">
-        <v>2769.6</v>
+        <v>1418.6</v>
       </c>
       <c r="M15">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="N15">
-        <v>76.2</v>
+        <v>66.7</v>
       </c>
       <c r="O15">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="P15">
-        <v>48865</v>
+        <v>28476</v>
       </c>
       <c r="Q15">
-        <v>387.8</v>
+        <v>226</v>
       </c>
       <c r="R15">
-        <v>693.6</v>
+        <v>560.8</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -1572,82 +2052,121 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>30.5</v>
       </c>
       <c r="V15">
-        <v>635.8</v>
+        <v>222.2</v>
       </c>
       <c r="W15">
-        <v>5694</v>
+        <v>4588</v>
       </c>
       <c r="X15">
         <v>126</v>
       </c>
       <c r="Y15">
+        <v>327.3</v>
+      </c>
+      <c r="Z15">
+        <v>87</v>
+      </c>
+      <c r="AA15">
+        <v>69</v>
+      </c>
+      <c r="AB15">
+        <v>0.7</v>
+      </c>
+      <c r="AC15">
+        <v>48865</v>
+      </c>
+      <c r="AD15">
+        <v>387.8</v>
+      </c>
+      <c r="AE15">
+        <v>693.6</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>635.8</v>
+      </c>
+      <c r="AJ15">
+        <v>5694</v>
+      </c>
+      <c r="AK15">
+        <v>126</v>
+      </c>
+      <c r="AL15">
         <v>842.5</v>
       </c>
-      <c r="Z15">
+      <c r="AM15">
         <v>58</v>
       </c>
-      <c r="AA15">
+      <c r="AN15">
         <v>46</v>
       </c>
-      <c r="AB15">
+      <c r="AO15">
         <v>0.8</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:41">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16">
-        <v>265474</v>
+        <v>151547</v>
       </c>
       <c r="D16">
-        <v>1996</v>
+        <v>1139.5</v>
       </c>
       <c r="E16">
-        <v>3309</v>
+        <v>1799.3</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>660</v>
+        <v>450</v>
       </c>
       <c r="I16">
-        <v>2137</v>
+        <v>1462</v>
       </c>
       <c r="J16">
-        <v>17348</v>
+        <v>10957</v>
       </c>
       <c r="K16">
         <v>133</v>
       </c>
       <c r="L16">
-        <v>2654.7</v>
+        <v>1629.5</v>
       </c>
       <c r="M16">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="N16">
-        <v>75.2</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="O16">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="P16">
-        <v>53838</v>
+        <v>74043</v>
       </c>
       <c r="Q16">
-        <v>404.8</v>
+        <v>556.7</v>
       </c>
       <c r="R16">
-        <v>730.5</v>
+        <v>1421.2</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -1656,45 +2175,84 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="V16">
-        <v>525</v>
+        <v>410</v>
       </c>
       <c r="W16">
-        <v>5746</v>
+        <v>12827</v>
       </c>
       <c r="X16">
         <v>133</v>
       </c>
       <c r="Y16">
+        <v>771.3</v>
+      </c>
+      <c r="Z16">
+        <v>96</v>
+      </c>
+      <c r="AA16">
+        <v>72.2</v>
+      </c>
+      <c r="AB16">
+        <v>0.8</v>
+      </c>
+      <c r="AC16">
+        <v>53838</v>
+      </c>
+      <c r="AD16">
+        <v>404.8</v>
+      </c>
+      <c r="AE16">
+        <v>730.5</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>525</v>
+      </c>
+      <c r="AJ16">
+        <v>5746</v>
+      </c>
+      <c r="AK16">
+        <v>133</v>
+      </c>
+      <c r="AL16">
         <v>828.3</v>
       </c>
-      <c r="Z16">
+      <c r="AM16">
         <v>65</v>
       </c>
-      <c r="AA16">
+      <c r="AN16">
         <v>48.9</v>
       </c>
-      <c r="AB16">
+      <c r="AO16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:41">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17">
-        <v>1982</v>
+        <v>1479</v>
       </c>
       <c r="D17">
-        <v>86.2</v>
+        <v>64.3</v>
       </c>
       <c r="E17">
-        <v>344.4</v>
+        <v>251.1</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1709,13 +2267,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1650</v>
+        <v>1200</v>
       </c>
       <c r="K17">
         <v>23</v>
       </c>
       <c r="L17">
-        <v>495.5</v>
+        <v>369.8</v>
       </c>
       <c r="M17">
         <v>4</v>
@@ -1724,16 +2282,16 @@
         <v>17.4</v>
       </c>
       <c r="O17">
-        <v>-2.2</v>
+        <v>-2.1</v>
       </c>
       <c r="P17">
-        <v>842</v>
+        <v>500</v>
       </c>
       <c r="Q17">
-        <v>36.6</v>
+        <v>21.7</v>
       </c>
       <c r="R17">
-        <v>135.2</v>
+        <v>93</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -1748,37 +2306,76 @@
         <v>0</v>
       </c>
       <c r="W17">
-        <v>619</v>
+        <v>447</v>
       </c>
       <c r="X17">
         <v>23</v>
       </c>
       <c r="Y17">
+        <v>125</v>
+      </c>
+      <c r="Z17">
+        <v>4</v>
+      </c>
+      <c r="AA17">
+        <v>17.4</v>
+      </c>
+      <c r="AB17">
+        <v>-2.1</v>
+      </c>
+      <c r="AC17">
+        <v>842</v>
+      </c>
+      <c r="AD17">
+        <v>36.6</v>
+      </c>
+      <c r="AE17">
+        <v>135.2</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>619</v>
+      </c>
+      <c r="AK17">
+        <v>23</v>
+      </c>
+      <c r="AL17">
         <v>421</v>
       </c>
-      <c r="Z17">
+      <c r="AM17">
         <v>2</v>
       </c>
-      <c r="AA17">
+      <c r="AN17">
         <v>8.699999999999999</v>
       </c>
-      <c r="AB17">
+      <c r="AO17">
         <v>-1.8</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:41">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18">
-        <v>124542</v>
+        <v>45229</v>
       </c>
       <c r="D18">
-        <v>988.4</v>
+        <v>359</v>
       </c>
       <c r="E18">
-        <v>2886.8</v>
+        <v>884.1</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1787,82 +2384,121 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>393.5</v>
+        <v>221</v>
       </c>
       <c r="J18">
-        <v>19457</v>
+        <v>6379</v>
       </c>
       <c r="K18">
         <v>126</v>
       </c>
       <c r="L18">
-        <v>1946</v>
+        <v>807.7</v>
       </c>
       <c r="M18">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="N18">
+        <v>44.4</v>
+      </c>
+      <c r="O18">
+        <v>-0.6</v>
+      </c>
+      <c r="P18">
+        <v>18688</v>
+      </c>
+      <c r="Q18">
+        <v>148.3</v>
+      </c>
+      <c r="R18">
+        <v>453.7</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
         <v>50.8</v>
       </c>
-      <c r="O18">
-        <v>-0.5</v>
-      </c>
-      <c r="P18">
-        <v>25845</v>
-      </c>
-      <c r="Q18">
-        <v>205.1</v>
-      </c>
-      <c r="R18">
-        <v>457</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>131</v>
-      </c>
       <c r="W18">
-        <v>2696</v>
+        <v>3807</v>
       </c>
       <c r="X18">
         <v>126</v>
       </c>
       <c r="Y18">
+        <v>311.5</v>
+      </c>
+      <c r="Z18">
+        <v>60</v>
+      </c>
+      <c r="AA18">
+        <v>47.6</v>
+      </c>
+      <c r="AB18">
+        <v>-0.5</v>
+      </c>
+      <c r="AC18">
+        <v>25845</v>
+      </c>
+      <c r="AD18">
+        <v>205.1</v>
+      </c>
+      <c r="AE18">
+        <v>457</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>131</v>
+      </c>
+      <c r="AJ18">
+        <v>2696</v>
+      </c>
+      <c r="AK18">
+        <v>126</v>
+      </c>
+      <c r="AL18">
         <v>717.9</v>
       </c>
-      <c r="Z18">
+      <c r="AM18">
         <v>36</v>
       </c>
-      <c r="AA18">
+      <c r="AN18">
         <v>28.6</v>
       </c>
-      <c r="AB18">
+      <c r="AO18">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:41">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19">
-        <v>188585</v>
+        <v>58170</v>
       </c>
       <c r="D19">
-        <v>1053.5</v>
+        <v>325</v>
       </c>
       <c r="E19">
-        <v>3976.2</v>
+        <v>813.8</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1871,37 +2507,37 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>381</v>
+        <v>215.5</v>
       </c>
       <c r="J19">
-        <v>40453</v>
+        <v>6108</v>
       </c>
       <c r="K19">
         <v>179</v>
       </c>
       <c r="L19">
-        <v>1924.3</v>
+        <v>661</v>
       </c>
       <c r="M19">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="N19">
-        <v>54.7</v>
+        <v>49.2</v>
       </c>
       <c r="O19">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="P19">
-        <v>27339</v>
+        <v>18198</v>
       </c>
       <c r="Q19">
-        <v>152.7</v>
+        <v>101.7</v>
       </c>
       <c r="R19">
-        <v>361.6</v>
+        <v>414.9</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -1913,40 +2549,79 @@
         <v>0</v>
       </c>
       <c r="V19">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="W19">
-        <v>2234</v>
+        <v>4541</v>
       </c>
       <c r="X19">
         <v>179</v>
       </c>
       <c r="Y19">
+        <v>206.8</v>
+      </c>
+      <c r="Z19">
+        <v>88</v>
+      </c>
+      <c r="AA19">
+        <v>49.2</v>
+      </c>
+      <c r="AB19">
+        <v>-0.4</v>
+      </c>
+      <c r="AC19">
+        <v>27339</v>
+      </c>
+      <c r="AD19">
+        <v>152.7</v>
+      </c>
+      <c r="AE19">
+        <v>361.6</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>6</v>
+      </c>
+      <c r="AJ19">
+        <v>2234</v>
+      </c>
+      <c r="AK19">
+        <v>179</v>
+      </c>
+      <c r="AL19">
         <v>607.5</v>
       </c>
-      <c r="Z19">
+      <c r="AM19">
         <v>45</v>
       </c>
-      <c r="AA19">
+      <c r="AN19">
         <v>25.1</v>
       </c>
-      <c r="AB19">
+      <c r="AO19">
         <v>-0.6</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:41">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20">
-        <v>72980</v>
+        <v>50940</v>
       </c>
       <c r="D20">
-        <v>4865.3</v>
+        <v>3396</v>
       </c>
       <c r="E20">
-        <v>17694.4</v>
+        <v>12233.9</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1958,16 +2633,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>60.5</v>
+        <v>51.5</v>
       </c>
       <c r="J20">
-        <v>68775</v>
+        <v>47571</v>
       </c>
       <c r="K20">
         <v>15</v>
       </c>
       <c r="L20">
-        <v>14596</v>
+        <v>10188</v>
       </c>
       <c r="M20">
         <v>5</v>
@@ -1976,16 +2651,16 @@
         <v>33.3</v>
       </c>
       <c r="O20">
-        <v>-1.4</v>
+        <v>-1.2</v>
       </c>
       <c r="P20">
-        <v>675</v>
+        <v>21724</v>
       </c>
       <c r="Q20">
-        <v>45</v>
+        <v>1448.3</v>
       </c>
       <c r="R20">
-        <v>174.3</v>
+        <v>5378.6</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -1997,40 +2672,79 @@
         <v>0</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W20">
-        <v>675</v>
+        <v>20884</v>
       </c>
       <c r="X20">
         <v>15</v>
       </c>
       <c r="Y20">
+        <v>4344.8</v>
+      </c>
+      <c r="Z20">
+        <v>5</v>
+      </c>
+      <c r="AA20">
+        <v>33.3</v>
+      </c>
+      <c r="AB20">
+        <v>-1.2</v>
+      </c>
+      <c r="AC20">
         <v>675</v>
       </c>
-      <c r="Z20">
+      <c r="AD20">
+        <v>45</v>
+      </c>
+      <c r="AE20">
+        <v>174.3</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>675</v>
+      </c>
+      <c r="AK20">
+        <v>15</v>
+      </c>
+      <c r="AL20">
+        <v>675</v>
+      </c>
+      <c r="AM20">
         <v>1</v>
       </c>
-      <c r="AA20">
+      <c r="AN20">
         <v>6.7</v>
       </c>
-      <c r="AB20">
+      <c r="AO20">
         <v>-1.9</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:41">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21">
-        <v>332405</v>
+        <v>136411</v>
       </c>
       <c r="D21">
-        <v>2817</v>
+        <v>1156</v>
       </c>
       <c r="E21">
-        <v>5505.4</v>
+        <v>2362.9</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2039,37 +2753,37 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>615</v>
+        <v>339</v>
       </c>
       <c r="I21">
-        <v>2718.5</v>
+        <v>1470.5</v>
       </c>
       <c r="J21">
-        <v>31042</v>
+        <v>19900</v>
       </c>
       <c r="K21">
         <v>118</v>
       </c>
       <c r="L21">
-        <v>3865.2</v>
+        <v>1748.9</v>
       </c>
       <c r="M21">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="N21">
-        <v>72.90000000000001</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="O21">
         <v>0.6</v>
       </c>
       <c r="P21">
-        <v>58042</v>
+        <v>86777</v>
       </c>
       <c r="Q21">
-        <v>491.9</v>
+        <v>735.4</v>
       </c>
       <c r="R21">
-        <v>1272.7</v>
+        <v>2427.9</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -2078,43 +2792,82 @@
         <v>0</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>29.5</v>
       </c>
       <c r="V21">
-        <v>617.2</v>
+        <v>378.2</v>
       </c>
       <c r="W21">
-        <v>8880</v>
+        <v>20111</v>
       </c>
       <c r="X21">
         <v>118</v>
       </c>
       <c r="Y21">
+        <v>1127</v>
+      </c>
+      <c r="Z21">
+        <v>77</v>
+      </c>
+      <c r="AA21">
+        <v>65.3</v>
+      </c>
+      <c r="AB21">
+        <v>0.5</v>
+      </c>
+      <c r="AC21">
+        <v>58042</v>
+      </c>
+      <c r="AD21">
+        <v>491.9</v>
+      </c>
+      <c r="AE21">
+        <v>1272.7</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>617.2</v>
+      </c>
+      <c r="AJ21">
+        <v>8880</v>
+      </c>
+      <c r="AK21">
+        <v>118</v>
+      </c>
+      <c r="AL21">
         <v>1116.2</v>
       </c>
-      <c r="Z21">
+      <c r="AM21">
         <v>52</v>
       </c>
-      <c r="AA21">
+      <c r="AN21">
         <v>44.1</v>
       </c>
-      <c r="AB21">
+      <c r="AO21">
         <v>0.7</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:41">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22">
-        <v>92099</v>
+        <v>24937</v>
       </c>
       <c r="D22">
-        <v>2093.2</v>
+        <v>566.8</v>
       </c>
       <c r="E22">
-        <v>4920.8</v>
+        <v>1280.9</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2123,37 +2876,37 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>120.5</v>
+        <v>40.5</v>
       </c>
       <c r="I22">
-        <v>1435.8</v>
+        <v>567</v>
       </c>
       <c r="J22">
-        <v>26102</v>
+        <v>7613</v>
       </c>
       <c r="K22">
         <v>44</v>
       </c>
       <c r="L22">
-        <v>3175.8</v>
+        <v>1039</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N22">
-        <v>65.90000000000001</v>
+        <v>54.5</v>
       </c>
       <c r="O22">
-        <v>0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="P22">
-        <v>12047</v>
+        <v>8527</v>
       </c>
       <c r="Q22">
-        <v>273.8</v>
+        <v>193.8</v>
       </c>
       <c r="R22">
-        <v>495.6</v>
+        <v>413.1</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -2162,43 +2915,82 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="V22">
-        <v>323.5</v>
+        <v>211</v>
       </c>
       <c r="W22">
-        <v>1774</v>
+        <v>1866</v>
       </c>
       <c r="X22">
         <v>44</v>
       </c>
       <c r="Y22">
+        <v>328</v>
+      </c>
+      <c r="Z22">
+        <v>26</v>
+      </c>
+      <c r="AA22">
+        <v>59.1</v>
+      </c>
+      <c r="AB22">
+        <v>0.1</v>
+      </c>
+      <c r="AC22">
+        <v>12047</v>
+      </c>
+      <c r="AD22">
+        <v>273.8</v>
+      </c>
+      <c r="AE22">
+        <v>495.6</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>323.5</v>
+      </c>
+      <c r="AJ22">
+        <v>1774</v>
+      </c>
+      <c r="AK22">
+        <v>44</v>
+      </c>
+      <c r="AL22">
         <v>860.5</v>
       </c>
-      <c r="Z22">
+      <c r="AM22">
         <v>14</v>
       </c>
-      <c r="AA22">
+      <c r="AN22">
         <v>31.8</v>
       </c>
-      <c r="AB22">
+      <c r="AO22">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:41">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23">
-        <v>232946</v>
+        <v>70541</v>
       </c>
       <c r="D23">
-        <v>2061.5</v>
+        <v>624.3</v>
       </c>
       <c r="E23">
-        <v>5631.8</v>
+        <v>1586</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -2207,37 +2999,37 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>165</v>
+        <v>31</v>
       </c>
       <c r="I23">
-        <v>1502</v>
+        <v>572</v>
       </c>
       <c r="J23">
-        <v>47158</v>
+        <v>14101</v>
       </c>
       <c r="K23">
         <v>113</v>
       </c>
       <c r="L23">
-        <v>2840.8</v>
+        <v>1068.8</v>
       </c>
       <c r="M23">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="N23">
-        <v>72.59999999999999</v>
+        <v>58.4</v>
       </c>
       <c r="O23">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="P23">
-        <v>63430</v>
+        <v>38272</v>
       </c>
       <c r="Q23">
-        <v>561.3</v>
+        <v>338.7</v>
       </c>
       <c r="R23">
-        <v>1998.6</v>
+        <v>1864.3</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -2246,43 +3038,82 @@
         <v>0</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V23">
-        <v>523</v>
+        <v>94</v>
       </c>
       <c r="W23">
-        <v>20246</v>
+        <v>19557</v>
       </c>
       <c r="X23">
         <v>113</v>
       </c>
       <c r="Y23">
+        <v>531.6</v>
+      </c>
+      <c r="Z23">
+        <v>72</v>
+      </c>
+      <c r="AA23">
+        <v>63.7</v>
+      </c>
+      <c r="AB23">
+        <v>0.4</v>
+      </c>
+      <c r="AC23">
+        <v>63430</v>
+      </c>
+      <c r="AD23">
+        <v>561.3</v>
+      </c>
+      <c r="AE23">
+        <v>1998.6</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>523</v>
+      </c>
+      <c r="AJ23">
+        <v>20246</v>
+      </c>
+      <c r="AK23">
+        <v>113</v>
+      </c>
+      <c r="AL23">
         <v>1153.3</v>
       </c>
-      <c r="Z23">
+      <c r="AM23">
         <v>55</v>
       </c>
-      <c r="AA23">
+      <c r="AN23">
         <v>48.7</v>
       </c>
-      <c r="AB23">
+      <c r="AO23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:41">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24">
-        <v>109848</v>
+        <v>24296</v>
       </c>
       <c r="D24">
-        <v>2072.6</v>
+        <v>458.4</v>
       </c>
       <c r="E24">
-        <v>5411.8</v>
+        <v>1113.8</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2291,37 +3122,37 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>915</v>
+        <v>269</v>
       </c>
       <c r="J24">
-        <v>24940</v>
+        <v>5535</v>
       </c>
       <c r="K24">
         <v>53</v>
       </c>
       <c r="L24">
-        <v>3543.5</v>
+        <v>934.5</v>
       </c>
       <c r="M24">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N24">
-        <v>58.5</v>
+        <v>49.1</v>
       </c>
       <c r="O24">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="P24">
-        <v>27526</v>
+        <v>5079</v>
       </c>
       <c r="Q24">
-        <v>519.4</v>
+        <v>95.8</v>
       </c>
       <c r="R24">
-        <v>1431.5</v>
+        <v>205</v>
       </c>
       <c r="S24">
         <v>0</v>
@@ -2333,40 +3164,79 @@
         <v>0</v>
       </c>
       <c r="V24">
-        <v>537</v>
+        <v>54</v>
       </c>
       <c r="W24">
-        <v>7664</v>
+        <v>915</v>
       </c>
       <c r="X24">
         <v>53</v>
       </c>
       <c r="Y24">
+        <v>220.8</v>
+      </c>
+      <c r="Z24">
+        <v>23</v>
+      </c>
+      <c r="AA24">
+        <v>43.4</v>
+      </c>
+      <c r="AB24">
+        <v>-0.7</v>
+      </c>
+      <c r="AC24">
+        <v>27526</v>
+      </c>
+      <c r="AD24">
+        <v>519.4</v>
+      </c>
+      <c r="AE24">
+        <v>1431.5</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>537</v>
+      </c>
+      <c r="AJ24">
+        <v>7664</v>
+      </c>
+      <c r="AK24">
+        <v>53</v>
+      </c>
+      <c r="AL24">
         <v>1529.2</v>
       </c>
-      <c r="Z24">
+      <c r="AM24">
         <v>18</v>
       </c>
-      <c r="AA24">
+      <c r="AN24">
         <v>34</v>
       </c>
-      <c r="AB24">
+      <c r="AO24">
         <v>-0</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:41">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25">
-        <v>180221</v>
+        <v>81255</v>
       </c>
       <c r="D25">
-        <v>744.7</v>
+        <v>335.8</v>
       </c>
       <c r="E25">
-        <v>2584.6</v>
+        <v>942.4</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -2375,37 +3245,37 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>446.8</v>
+        <v>299</v>
       </c>
       <c r="J25">
-        <v>22943</v>
+        <v>8541</v>
       </c>
       <c r="K25">
         <v>242</v>
       </c>
       <c r="L25">
-        <v>1489.4</v>
+        <v>759.4</v>
       </c>
       <c r="M25">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="N25">
-        <v>50</v>
+        <v>44.2</v>
       </c>
       <c r="O25">
         <v>-0.6</v>
       </c>
       <c r="P25">
-        <v>88300</v>
+        <v>28799</v>
       </c>
       <c r="Q25">
-        <v>364.9</v>
+        <v>119</v>
       </c>
       <c r="R25">
-        <v>2431.5</v>
+        <v>546.1</v>
       </c>
       <c r="S25">
         <v>0</v>
@@ -2417,40 +3287,79 @@
         <v>0</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="W25">
-        <v>36858</v>
+        <v>6050</v>
       </c>
       <c r="X25">
         <v>242</v>
       </c>
       <c r="Y25">
+        <v>257.1</v>
+      </c>
+      <c r="Z25">
+        <v>112</v>
+      </c>
+      <c r="AA25">
+        <v>46.3</v>
+      </c>
+      <c r="AB25">
+        <v>-0.5</v>
+      </c>
+      <c r="AC25">
+        <v>88300</v>
+      </c>
+      <c r="AD25">
+        <v>364.9</v>
+      </c>
+      <c r="AE25">
+        <v>2431.5</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>36858</v>
+      </c>
+      <c r="AK25">
+        <v>242</v>
+      </c>
+      <c r="AL25">
         <v>1549.1</v>
       </c>
-      <c r="Z25">
+      <c r="AM25">
         <v>57</v>
       </c>
-      <c r="AA25">
+      <c r="AN25">
         <v>23.6</v>
       </c>
-      <c r="AB25">
+      <c r="AO25">
         <v>-0.7</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:41">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26">
-        <v>356560</v>
+        <v>134853</v>
       </c>
       <c r="D26">
-        <v>1449.4</v>
+        <v>548.2</v>
       </c>
       <c r="E26">
-        <v>6130</v>
+        <v>1338.5</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -2459,37 +3368,37 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>45.5</v>
+        <v>19</v>
       </c>
       <c r="I26">
-        <v>803</v>
+        <v>502</v>
       </c>
       <c r="J26">
-        <v>72982</v>
+        <v>14118</v>
       </c>
       <c r="K26">
         <v>246</v>
       </c>
       <c r="L26">
-        <v>2285.6</v>
+        <v>956.4</v>
       </c>
       <c r="M26">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="N26">
-        <v>63.4</v>
+        <v>57.3</v>
       </c>
       <c r="O26">
         <v>0.1</v>
       </c>
       <c r="P26">
-        <v>56844</v>
+        <v>40489</v>
       </c>
       <c r="Q26">
-        <v>231.1</v>
+        <v>164.6</v>
       </c>
       <c r="R26">
-        <v>602.8</v>
+        <v>431.3</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -2498,43 +3407,82 @@
         <v>0</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V26">
-        <v>25.5</v>
+        <v>87.8</v>
       </c>
       <c r="W26">
-        <v>6047</v>
+        <v>3532</v>
       </c>
       <c r="X26">
         <v>246</v>
       </c>
       <c r="Y26">
+        <v>289.2</v>
+      </c>
+      <c r="Z26">
+        <v>140</v>
+      </c>
+      <c r="AA26">
+        <v>56.9</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>56844</v>
+      </c>
+      <c r="AD26">
+        <v>231.1</v>
+      </c>
+      <c r="AE26">
+        <v>602.8</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>25.5</v>
+      </c>
+      <c r="AJ26">
+        <v>6047</v>
+      </c>
+      <c r="AK26">
+        <v>246</v>
+      </c>
+      <c r="AL26">
         <v>902.3</v>
       </c>
-      <c r="Z26">
+      <c r="AM26">
         <v>63</v>
       </c>
-      <c r="AA26">
+      <c r="AN26">
         <v>25.6</v>
       </c>
-      <c r="AB26">
+      <c r="AO26">
         <v>-0.6</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:41">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C27">
-        <v>142097</v>
+        <v>70997</v>
       </c>
       <c r="D27">
-        <v>631.5</v>
+        <v>315.5</v>
       </c>
       <c r="E27">
-        <v>1871.4</v>
+        <v>754.9</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -2543,37 +3491,37 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>503</v>
+        <v>351</v>
       </c>
       <c r="J27">
-        <v>19694</v>
+        <v>7022</v>
       </c>
       <c r="K27">
         <v>225</v>
       </c>
       <c r="L27">
-        <v>1174.4</v>
+        <v>657.4</v>
       </c>
       <c r="M27">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="N27">
-        <v>53.8</v>
+        <v>48</v>
       </c>
       <c r="O27">
         <v>-0.4</v>
       </c>
       <c r="P27">
-        <v>78999</v>
+        <v>18936</v>
       </c>
       <c r="Q27">
-        <v>351.1</v>
+        <v>84.2</v>
       </c>
       <c r="R27">
-        <v>2492.8</v>
+        <v>225.7</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -2585,40 +3533,79 @@
         <v>0</v>
       </c>
       <c r="V27">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="W27">
-        <v>36948</v>
+        <v>1717</v>
       </c>
       <c r="X27">
         <v>225</v>
       </c>
       <c r="Y27">
+        <v>170.6</v>
+      </c>
+      <c r="Z27">
+        <v>111</v>
+      </c>
+      <c r="AA27">
+        <v>49.3</v>
+      </c>
+      <c r="AB27">
+        <v>-0.4</v>
+      </c>
+      <c r="AC27">
+        <v>78999</v>
+      </c>
+      <c r="AD27">
+        <v>351.1</v>
+      </c>
+      <c r="AE27">
+        <v>2492.8</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>57</v>
+      </c>
+      <c r="AJ27">
+        <v>36948</v>
+      </c>
+      <c r="AK27">
+        <v>225</v>
+      </c>
+      <c r="AL27">
         <v>1339</v>
       </c>
-      <c r="Z27">
+      <c r="AM27">
         <v>59</v>
       </c>
-      <c r="AA27">
+      <c r="AN27">
         <v>26.2</v>
       </c>
-      <c r="AB27">
+      <c r="AO27">
         <v>-0.6</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:41">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C28">
-        <v>142150</v>
+        <v>35940</v>
       </c>
       <c r="D28">
-        <v>1341</v>
+        <v>339.1</v>
       </c>
       <c r="E28">
-        <v>4180.8</v>
+        <v>783.8</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -2627,37 +3614,37 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>906.2</v>
+        <v>278.8</v>
       </c>
       <c r="J28">
-        <v>30621</v>
+        <v>4906</v>
       </c>
       <c r="K28">
         <v>106</v>
       </c>
       <c r="L28">
-        <v>2090.4</v>
+        <v>653.5</v>
       </c>
       <c r="M28">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="N28">
-        <v>64.2</v>
+        <v>51.9</v>
       </c>
       <c r="O28">
-        <v>0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="P28">
-        <v>41003</v>
+        <v>7521</v>
       </c>
       <c r="Q28">
-        <v>386.8</v>
+        <v>71</v>
       </c>
       <c r="R28">
-        <v>1407.2</v>
+        <v>321.9</v>
       </c>
       <c r="S28">
         <v>0</v>
@@ -2666,43 +3653,82 @@
         <v>0</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28">
-        <v>250.8</v>
+        <v>23.2</v>
       </c>
       <c r="W28">
-        <v>13336</v>
+        <v>3183</v>
       </c>
       <c r="X28">
         <v>106</v>
       </c>
       <c r="Y28">
+        <v>136.7</v>
+      </c>
+      <c r="Z28">
+        <v>55</v>
+      </c>
+      <c r="AA28">
+        <v>51.9</v>
+      </c>
+      <c r="AB28">
+        <v>-0.2</v>
+      </c>
+      <c r="AC28">
+        <v>41003</v>
+      </c>
+      <c r="AD28">
+        <v>386.8</v>
+      </c>
+      <c r="AE28">
+        <v>1407.2</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>250.8</v>
+      </c>
+      <c r="AJ28">
+        <v>13336</v>
+      </c>
+      <c r="AK28">
+        <v>106</v>
+      </c>
+      <c r="AL28">
         <v>1051.4</v>
       </c>
-      <c r="Z28">
+      <c r="AM28">
         <v>39</v>
       </c>
-      <c r="AA28">
+      <c r="AN28">
         <v>36.8</v>
       </c>
-      <c r="AB28">
+      <c r="AO28">
         <v>0.2</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:41">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C29">
-        <v>139533</v>
+        <v>40902</v>
       </c>
       <c r="D29">
-        <v>1368</v>
+        <v>401</v>
       </c>
       <c r="E29">
-        <v>4291.7</v>
+        <v>894.3</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -2711,37 +3737,37 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>585</v>
+        <v>218.8</v>
       </c>
       <c r="J29">
-        <v>29324</v>
+        <v>4765</v>
       </c>
       <c r="K29">
         <v>102</v>
       </c>
       <c r="L29">
-        <v>2735.9</v>
+        <v>908.9</v>
       </c>
       <c r="M29">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N29">
-        <v>50</v>
+        <v>44.1</v>
       </c>
       <c r="O29">
         <v>-0.6</v>
       </c>
       <c r="P29">
-        <v>19637</v>
+        <v>20853</v>
       </c>
       <c r="Q29">
-        <v>192.5</v>
+        <v>204.4</v>
       </c>
       <c r="R29">
-        <v>675.1</v>
+        <v>1149.5</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -2753,40 +3779,79 @@
         <v>0</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="W29">
-        <v>6145</v>
+        <v>11227</v>
       </c>
       <c r="X29">
         <v>102</v>
       </c>
       <c r="Y29">
+        <v>443.7</v>
+      </c>
+      <c r="Z29">
+        <v>47</v>
+      </c>
+      <c r="AA29">
+        <v>46.1</v>
+      </c>
+      <c r="AB29">
+        <v>-0.5</v>
+      </c>
+      <c r="AC29">
+        <v>19637</v>
+      </c>
+      <c r="AD29">
+        <v>192.5</v>
+      </c>
+      <c r="AE29">
+        <v>675.1</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>6145</v>
+      </c>
+      <c r="AK29">
+        <v>102</v>
+      </c>
+      <c r="AL29">
         <v>853.8</v>
       </c>
-      <c r="Z29">
+      <c r="AM29">
         <v>23</v>
       </c>
-      <c r="AA29">
+      <c r="AN29">
         <v>22.5</v>
       </c>
-      <c r="AB29">
+      <c r="AO29">
         <v>-0.8</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:41">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C30">
-        <v>169739</v>
+        <v>54041</v>
       </c>
       <c r="D30">
-        <v>1768.1</v>
+        <v>562.9</v>
       </c>
       <c r="E30">
-        <v>6521</v>
+        <v>920.1</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2795,37 +3860,37 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="I30">
-        <v>1384.2</v>
+        <v>930.5</v>
       </c>
       <c r="J30">
-        <v>52506</v>
+        <v>3970</v>
       </c>
       <c r="K30">
         <v>96</v>
       </c>
       <c r="L30">
-        <v>3086.2</v>
+        <v>1039.2</v>
       </c>
       <c r="M30">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N30">
-        <v>57.3</v>
+        <v>54.2</v>
       </c>
       <c r="O30">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="P30">
-        <v>53659</v>
+        <v>21685</v>
       </c>
       <c r="Q30">
-        <v>558.9</v>
+        <v>225.9</v>
       </c>
       <c r="R30">
-        <v>2323</v>
+        <v>717.1</v>
       </c>
       <c r="S30">
         <v>0</v>
@@ -2834,34 +3899,74 @@
         <v>0</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="V30">
-        <v>331.8</v>
+        <v>135.2</v>
       </c>
       <c r="W30">
-        <v>21892</v>
+        <v>6137</v>
       </c>
       <c r="X30">
         <v>96</v>
       </c>
       <c r="Y30">
+        <v>417</v>
+      </c>
+      <c r="Z30">
+        <v>52</v>
+      </c>
+      <c r="AA30">
+        <v>54.2</v>
+      </c>
+      <c r="AB30">
+        <v>-0.1</v>
+      </c>
+      <c r="AC30">
+        <v>53659</v>
+      </c>
+      <c r="AD30">
+        <v>558.9</v>
+      </c>
+      <c r="AE30">
+        <v>2323</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>331.8</v>
+      </c>
+      <c r="AJ30">
+        <v>21892</v>
+      </c>
+      <c r="AK30">
+        <v>96</v>
+      </c>
+      <c r="AL30">
         <v>1490.5</v>
       </c>
-      <c r="Z30">
+      <c r="AM30">
         <v>36</v>
       </c>
-      <c r="AA30">
+      <c r="AN30">
         <v>37.5</v>
       </c>
-      <c r="AB30">
+      <c r="AO30">
         <v>0.2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C1:O1"/>
     <mergeCell ref="P1:AB1"/>
+    <mergeCell ref="AC1:AO1"/>
     <mergeCell ref="A4:A16"/>
     <mergeCell ref="A17:A30"/>
   </mergeCells>

--- a/data/analysis/social_media_analytics/pivot_tables/accreditation-region/museum_activity_groups__var2-accreditation-region.xlsx
+++ b/data/analysis/social_media_analytics/pivot_tables/accreditation-region/museum_activity_groups__var2-accreditation-region.xlsx
@@ -729,37 +729,40 @@
         <v>-3</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AK4">
         <v>1</v>
       </c>
+      <c r="AL4">
+        <v>55</v>
+      </c>
       <c r="AM4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AO4">
-        <v>-2.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -768,91 +771,91 @@
         <v>21</v>
       </c>
       <c r="C5">
-        <v>81136</v>
+        <v>91018</v>
       </c>
       <c r="D5">
-        <v>787.7</v>
+        <v>883.7</v>
       </c>
       <c r="E5">
-        <v>2016.4</v>
+        <v>2365</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="H5">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="I5">
-        <v>706</v>
+        <v>874</v>
       </c>
       <c r="J5">
-        <v>17279</v>
+        <v>20844</v>
       </c>
       <c r="K5">
         <v>103</v>
       </c>
       <c r="L5">
-        <v>1027</v>
+        <v>1182.1</v>
       </c>
       <c r="M5">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N5">
-        <v>76.7</v>
+        <v>74.8</v>
       </c>
       <c r="O5">
         <v>1.1</v>
       </c>
       <c r="P5">
-        <v>21604</v>
+        <v>24375</v>
       </c>
       <c r="Q5">
-        <v>209.7</v>
+        <v>236.7</v>
       </c>
       <c r="R5">
-        <v>813.7</v>
+        <v>1016.6</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="V5">
-        <v>103</v>
+        <v>98.5</v>
       </c>
       <c r="W5">
-        <v>7809</v>
+        <v>9950</v>
       </c>
       <c r="X5">
         <v>103</v>
       </c>
       <c r="Y5">
-        <v>280.6</v>
+        <v>320.7</v>
       </c>
       <c r="Z5">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA5">
-        <v>74.8</v>
+        <v>73.8</v>
       </c>
       <c r="AB5">
         <v>1</v>
       </c>
       <c r="AC5">
-        <v>39679</v>
+        <v>68334</v>
       </c>
       <c r="AD5">
-        <v>385.2</v>
+        <v>663.4</v>
       </c>
       <c r="AE5">
-        <v>632.5</v>
+        <v>901.7</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -861,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>378</v>
       </c>
       <c r="AI5">
-        <v>536</v>
+        <v>901.5</v>
       </c>
       <c r="AJ5">
-        <v>3252</v>
+        <v>5487</v>
       </c>
       <c r="AK5">
         <v>103</v>
       </c>
       <c r="AL5">
-        <v>826.6</v>
+        <v>911.1</v>
       </c>
       <c r="AM5">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="AN5">
-        <v>46.6</v>
+        <v>72.8</v>
       </c>
       <c r="AO5">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6" spans="1:41">
@@ -891,91 +894,91 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>135171</v>
+        <v>159419</v>
       </c>
       <c r="D6">
-        <v>883.5</v>
+        <v>1042</v>
       </c>
       <c r="E6">
-        <v>1586.7</v>
+        <v>1862.1</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H6">
-        <v>279</v>
+        <v>325</v>
       </c>
       <c r="I6">
-        <v>998</v>
+        <v>1230</v>
       </c>
       <c r="J6">
-        <v>14162</v>
+        <v>16335</v>
       </c>
       <c r="K6">
         <v>153</v>
       </c>
       <c r="L6">
-        <v>1145.5</v>
+        <v>1374.3</v>
       </c>
       <c r="M6">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N6">
-        <v>77.09999999999999</v>
+        <v>75.8</v>
       </c>
       <c r="O6">
         <v>1.2</v>
       </c>
       <c r="P6">
-        <v>39934</v>
+        <v>46012</v>
       </c>
       <c r="Q6">
-        <v>261</v>
+        <v>300.7</v>
       </c>
       <c r="R6">
-        <v>687.8</v>
+        <v>786.2</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U6">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="V6">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="W6">
-        <v>6662</v>
+        <v>7710</v>
       </c>
       <c r="X6">
         <v>153</v>
       </c>
       <c r="Y6">
-        <v>335.6</v>
+        <v>393.3</v>
       </c>
       <c r="Z6">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AA6">
-        <v>77.8</v>
+        <v>76.5</v>
       </c>
       <c r="AB6">
         <v>1.1</v>
       </c>
       <c r="AC6">
-        <v>42425</v>
+        <v>68667</v>
       </c>
       <c r="AD6">
-        <v>277.3</v>
+        <v>448.8</v>
       </c>
       <c r="AE6">
-        <v>692.4</v>
+        <v>552.1</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -984,28 +987,28 @@
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="AI6">
-        <v>301</v>
+        <v>677</v>
       </c>
       <c r="AJ6">
-        <v>6335</v>
+        <v>2632</v>
       </c>
       <c r="AK6">
         <v>153</v>
       </c>
       <c r="AL6">
-        <v>848.5</v>
+        <v>635.8</v>
       </c>
       <c r="AM6">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="AN6">
-        <v>32.7</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="AO6">
-        <v>-0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:41">
@@ -1014,34 +1017,34 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>188608</v>
+        <v>229217</v>
       </c>
       <c r="D7">
-        <v>1571.7</v>
+        <v>1910.1</v>
       </c>
       <c r="E7">
-        <v>2403.9</v>
+        <v>2932</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>222.2</v>
+        <v>262.5</v>
       </c>
       <c r="H7">
-        <v>911</v>
+        <v>1050</v>
       </c>
       <c r="I7">
-        <v>1797.5</v>
+        <v>2266.8</v>
       </c>
       <c r="J7">
-        <v>18330</v>
+        <v>23112</v>
       </c>
       <c r="K7">
         <v>120</v>
       </c>
       <c r="L7">
-        <v>1944.4</v>
+        <v>2363.1</v>
       </c>
       <c r="M7">
         <v>97</v>
@@ -1053,34 +1056,34 @@
         <v>1.4</v>
       </c>
       <c r="P7">
-        <v>110557</v>
+        <v>131752</v>
       </c>
       <c r="Q7">
-        <v>921.3</v>
+        <v>1097.9</v>
       </c>
       <c r="R7">
-        <v>2349.7</v>
+        <v>2766.8</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>40.5</v>
+        <v>46</v>
       </c>
       <c r="U7">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="V7">
-        <v>532.8</v>
+        <v>628.8</v>
       </c>
       <c r="W7">
-        <v>18016</v>
+        <v>20340</v>
       </c>
       <c r="X7">
         <v>120</v>
       </c>
       <c r="Y7">
-        <v>1105.6</v>
+        <v>1317.5</v>
       </c>
       <c r="Z7">
         <v>100</v>
@@ -1089,46 +1092,46 @@
         <v>83.3</v>
       </c>
       <c r="AB7">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AC7">
-        <v>57615</v>
+        <v>80052</v>
       </c>
       <c r="AD7">
-        <v>480.1</v>
+        <v>667.1</v>
       </c>
       <c r="AE7">
-        <v>672.1</v>
+        <v>706.8</v>
       </c>
       <c r="AF7">
         <v>0</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>48.5</v>
       </c>
       <c r="AH7">
-        <v>67</v>
+        <v>424</v>
       </c>
       <c r="AI7">
-        <v>803.5</v>
+        <v>1098</v>
       </c>
       <c r="AJ7">
-        <v>3218</v>
+        <v>3465</v>
       </c>
       <c r="AK7">
         <v>120</v>
       </c>
       <c r="AL7">
-        <v>900.2</v>
+        <v>833.9</v>
       </c>
       <c r="AM7">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="AN7">
-        <v>53.3</v>
+        <v>80</v>
       </c>
       <c r="AO7">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="8" spans="1:41">
@@ -1137,13 +1140,13 @@
         <v>24</v>
       </c>
       <c r="C8">
-        <v>44255</v>
+        <v>52269</v>
       </c>
       <c r="D8">
-        <v>725.5</v>
+        <v>856.9</v>
       </c>
       <c r="E8">
-        <v>947</v>
+        <v>1122.5</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1152,37 +1155,37 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>421</v>
+        <v>488</v>
       </c>
       <c r="I8">
-        <v>1014</v>
+        <v>1248</v>
       </c>
       <c r="J8">
-        <v>4347</v>
+        <v>5153</v>
       </c>
       <c r="K8">
         <v>61</v>
       </c>
       <c r="L8">
-        <v>1029.2</v>
+        <v>1274.9</v>
       </c>
       <c r="M8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N8">
-        <v>70.5</v>
+        <v>67.2</v>
       </c>
       <c r="O8">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="P8">
-        <v>12589</v>
+        <v>14606</v>
       </c>
       <c r="Q8">
-        <v>206.4</v>
+        <v>239.4</v>
       </c>
       <c r="R8">
-        <v>370.9</v>
+        <v>443.9</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1191,67 +1194,67 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="V8">
-        <v>227</v>
+        <v>287</v>
       </c>
       <c r="W8">
-        <v>1866</v>
+        <v>2197</v>
       </c>
       <c r="X8">
         <v>61</v>
       </c>
       <c r="Y8">
-        <v>286.1</v>
+        <v>347.8</v>
       </c>
       <c r="Z8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA8">
-        <v>72.09999999999999</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="AB8">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AC8">
-        <v>23390</v>
+        <v>35644</v>
       </c>
       <c r="AD8">
-        <v>383.4</v>
+        <v>584.3</v>
       </c>
       <c r="AE8">
-        <v>485.2</v>
+        <v>581</v>
       </c>
       <c r="AF8">
         <v>0</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="AH8">
-        <v>117</v>
+        <v>481</v>
       </c>
       <c r="AI8">
-        <v>619</v>
+        <v>874</v>
       </c>
       <c r="AJ8">
-        <v>1611</v>
+        <v>1988</v>
       </c>
       <c r="AK8">
         <v>61</v>
       </c>
       <c r="AL8">
-        <v>708.8</v>
+        <v>758.4</v>
       </c>
       <c r="AM8">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="AN8">
-        <v>54.1</v>
+        <v>77</v>
       </c>
       <c r="AO8">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="9" spans="1:41">
@@ -1260,13 +1263,13 @@
         <v>25</v>
       </c>
       <c r="C9">
-        <v>138267</v>
+        <v>163925</v>
       </c>
       <c r="D9">
-        <v>1031.8</v>
+        <v>1223.3</v>
       </c>
       <c r="E9">
-        <v>1457.1</v>
+        <v>1716.6</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1275,37 +1278,37 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>575.5</v>
+        <v>618</v>
       </c>
       <c r="I9">
-        <v>1245.5</v>
+        <v>1495.2</v>
       </c>
       <c r="J9">
-        <v>7874</v>
+        <v>8761</v>
       </c>
       <c r="K9">
         <v>134</v>
       </c>
       <c r="L9">
-        <v>1440.3</v>
+        <v>1725.5</v>
       </c>
       <c r="M9">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N9">
-        <v>71.59999999999999</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="O9">
         <v>0.9</v>
       </c>
       <c r="P9">
-        <v>42330</v>
+        <v>48418</v>
       </c>
       <c r="Q9">
-        <v>315.9</v>
+        <v>361.3</v>
       </c>
       <c r="R9">
-        <v>633.1</v>
+        <v>707.2</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1314,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="V9">
-        <v>362</v>
+        <v>417.2</v>
       </c>
       <c r="W9">
-        <v>5171</v>
+        <v>5461</v>
       </c>
       <c r="X9">
         <v>134</v>
       </c>
       <c r="Y9">
-        <v>436.4</v>
+        <v>499.2</v>
       </c>
       <c r="Z9">
         <v>97</v>
@@ -1338,43 +1341,43 @@
         <v>0.9</v>
       </c>
       <c r="AC9">
-        <v>72197</v>
+        <v>86098</v>
       </c>
       <c r="AD9">
-        <v>538.8</v>
+        <v>642.5</v>
       </c>
       <c r="AE9">
-        <v>879.7</v>
+        <v>815.2</v>
       </c>
       <c r="AF9">
         <v>0</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AH9">
-        <v>237.5</v>
+        <v>411.5</v>
       </c>
       <c r="AI9">
-        <v>757.2</v>
+        <v>991</v>
       </c>
       <c r="AJ9">
-        <v>6327</v>
+        <v>5325</v>
       </c>
       <c r="AK9">
         <v>134</v>
       </c>
       <c r="AL9">
-        <v>937.6</v>
+        <v>861</v>
       </c>
       <c r="AM9">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AN9">
-        <v>57.5</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="AO9">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="10" spans="1:41">
@@ -1383,13 +1386,13 @@
         <v>26</v>
       </c>
       <c r="C10">
-        <v>27470</v>
+        <v>36873</v>
       </c>
       <c r="D10">
-        <v>670</v>
+        <v>899.3</v>
       </c>
       <c r="E10">
-        <v>2327.7</v>
+        <v>3581.2</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1401,34 +1404,34 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>582</v>
+        <v>675</v>
       </c>
       <c r="J10">
-        <v>14888</v>
+        <v>22972</v>
       </c>
       <c r="K10">
         <v>41</v>
       </c>
       <c r="L10">
-        <v>1445.8</v>
+        <v>2048.5</v>
       </c>
       <c r="M10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N10">
-        <v>46.3</v>
+        <v>43.9</v>
       </c>
       <c r="O10">
-        <v>-0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="P10">
-        <v>13077</v>
+        <v>20377</v>
       </c>
       <c r="Q10">
-        <v>319</v>
+        <v>497</v>
       </c>
       <c r="R10">
-        <v>1623.2</v>
+        <v>2757.8</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1440,34 +1443,34 @@
         <v>0</v>
       </c>
       <c r="V10">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="W10">
-        <v>10421</v>
+        <v>17700</v>
       </c>
       <c r="X10">
         <v>41</v>
       </c>
       <c r="Y10">
-        <v>653.8</v>
+        <v>1072.5</v>
       </c>
       <c r="Z10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA10">
-        <v>48.8</v>
+        <v>46.3</v>
       </c>
       <c r="AB10">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AC10">
-        <v>19162</v>
+        <v>14135</v>
       </c>
       <c r="AD10">
-        <v>467.4</v>
+        <v>344.8</v>
       </c>
       <c r="AE10">
-        <v>1337.5</v>
+        <v>425.6</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1476,28 +1479,28 @@
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="AI10">
-        <v>492</v>
+        <v>717</v>
       </c>
       <c r="AJ10">
-        <v>6887</v>
+        <v>1516</v>
       </c>
       <c r="AK10">
         <v>41</v>
       </c>
       <c r="AL10">
-        <v>1474</v>
+        <v>589</v>
       </c>
       <c r="AM10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="AN10">
-        <v>31.7</v>
+        <v>58.5</v>
       </c>
       <c r="AO10">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="11" spans="1:41">
@@ -1506,13 +1509,13 @@
         <v>27</v>
       </c>
       <c r="C11">
-        <v>234286</v>
+        <v>269530</v>
       </c>
       <c r="D11">
-        <v>929.7</v>
+        <v>1069.6</v>
       </c>
       <c r="E11">
-        <v>3274.8</v>
+        <v>3569.8</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1521,37 +1524,37 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>71.5</v>
+        <v>62.5</v>
       </c>
       <c r="I11">
-        <v>892.2</v>
+        <v>1033.8</v>
       </c>
       <c r="J11">
-        <v>47580</v>
+        <v>50844</v>
       </c>
       <c r="K11">
         <v>252</v>
       </c>
       <c r="L11">
-        <v>1604.7</v>
+        <v>1911.6</v>
       </c>
       <c r="M11">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="N11">
-        <v>57.9</v>
+        <v>56</v>
       </c>
       <c r="O11">
         <v>0.1</v>
       </c>
       <c r="P11">
-        <v>72326</v>
+        <v>84346</v>
       </c>
       <c r="Q11">
-        <v>287</v>
+        <v>334.7</v>
       </c>
       <c r="R11">
-        <v>1087.4</v>
+        <v>1284.3</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1560,37 +1563,37 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V11">
-        <v>194.8</v>
+        <v>219.2</v>
       </c>
       <c r="W11">
-        <v>9692</v>
+        <v>11140</v>
       </c>
       <c r="X11">
         <v>252</v>
       </c>
       <c r="Y11">
-        <v>495.4</v>
+        <v>594</v>
       </c>
       <c r="Z11">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="AA11">
-        <v>57.9</v>
+        <v>56.3</v>
       </c>
       <c r="AB11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>72603</v>
+        <v>123602</v>
       </c>
       <c r="AD11">
-        <v>288.1</v>
+        <v>490.5</v>
       </c>
       <c r="AE11">
-        <v>670.1</v>
+        <v>857.8</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1599,28 +1602,28 @@
         <v>0</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AI11">
-        <v>345.2</v>
+        <v>703.8</v>
       </c>
       <c r="AJ11">
-        <v>6448</v>
+        <v>8295</v>
       </c>
       <c r="AK11">
         <v>252</v>
       </c>
       <c r="AL11">
-        <v>942.9</v>
+        <v>763</v>
       </c>
       <c r="AM11">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="AN11">
-        <v>30.6</v>
+        <v>64.3</v>
       </c>
       <c r="AO11">
-        <v>-0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="12" spans="1:41">
@@ -1629,121 +1632,121 @@
         <v>28</v>
       </c>
       <c r="C12">
-        <v>271557</v>
+        <v>326668</v>
       </c>
       <c r="D12">
-        <v>1185.8</v>
+        <v>1426.5</v>
       </c>
       <c r="E12">
-        <v>3308.3</v>
+        <v>4165.2</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H12">
-        <v>388</v>
+        <v>462</v>
       </c>
       <c r="I12">
-        <v>1127</v>
+        <v>1436</v>
       </c>
       <c r="J12">
-        <v>43003</v>
+        <v>55081</v>
       </c>
       <c r="K12">
         <v>229</v>
       </c>
       <c r="L12">
-        <v>1542.9</v>
+        <v>1877.4</v>
       </c>
       <c r="M12">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="N12">
-        <v>76.90000000000001</v>
+        <v>76</v>
       </c>
       <c r="O12">
         <v>1.2</v>
       </c>
       <c r="P12">
-        <v>114720</v>
+        <v>128018</v>
       </c>
       <c r="Q12">
-        <v>501</v>
+        <v>559</v>
       </c>
       <c r="R12">
-        <v>3166.2</v>
+        <v>3299.4</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U12">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="V12">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="W12">
-        <v>46992</v>
+        <v>48717</v>
       </c>
       <c r="X12">
         <v>229</v>
       </c>
       <c r="Y12">
-        <v>651.8</v>
+        <v>740</v>
       </c>
       <c r="Z12">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AA12">
-        <v>76.90000000000001</v>
+        <v>75.5</v>
       </c>
       <c r="AB12">
         <v>1.1</v>
       </c>
       <c r="AC12">
-        <v>77502</v>
+        <v>111476</v>
       </c>
       <c r="AD12">
-        <v>338.4</v>
+        <v>486.8</v>
       </c>
       <c r="AE12">
-        <v>617.3</v>
+        <v>537.8</v>
       </c>
       <c r="AF12">
         <v>0</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="AI12">
-        <v>492</v>
+        <v>761</v>
       </c>
       <c r="AJ12">
-        <v>4996</v>
+        <v>2088</v>
       </c>
       <c r="AK12">
         <v>229</v>
       </c>
       <c r="AL12">
-        <v>799</v>
+        <v>644.4</v>
       </c>
       <c r="AM12">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="AN12">
-        <v>42.4</v>
+        <v>75.5</v>
       </c>
       <c r="AO12">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="13" spans="1:41">
@@ -1752,13 +1755,13 @@
         <v>29</v>
       </c>
       <c r="C13">
-        <v>121016</v>
+        <v>145435</v>
       </c>
       <c r="D13">
-        <v>614.3</v>
+        <v>738.2</v>
       </c>
       <c r="E13">
-        <v>994.7</v>
+        <v>1211.6</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1767,19 +1770,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>205</v>
+        <v>267</v>
       </c>
       <c r="I13">
-        <v>823</v>
+        <v>1031</v>
       </c>
       <c r="J13">
-        <v>8769</v>
+        <v>10974</v>
       </c>
       <c r="K13">
         <v>197</v>
       </c>
       <c r="L13">
-        <v>864.4</v>
+        <v>1038.8</v>
       </c>
       <c r="M13">
         <v>140</v>
@@ -1788,16 +1791,16 @@
         <v>71.09999999999999</v>
       </c>
       <c r="O13">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="P13">
-        <v>31650</v>
+        <v>37260</v>
       </c>
       <c r="Q13">
-        <v>160.7</v>
+        <v>189.1</v>
       </c>
       <c r="R13">
-        <v>580.2</v>
+        <v>652.6</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -1806,19 +1809,19 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="V13">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="W13">
-        <v>7636</v>
+        <v>8450</v>
       </c>
       <c r="X13">
         <v>197</v>
       </c>
       <c r="Y13">
-        <v>224.5</v>
+        <v>264.3</v>
       </c>
       <c r="Z13">
         <v>141</v>
@@ -1827,16 +1830,16 @@
         <v>71.59999999999999</v>
       </c>
       <c r="AB13">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AC13">
-        <v>61279</v>
+        <v>91490</v>
       </c>
       <c r="AD13">
-        <v>311.1</v>
+        <v>464.4</v>
       </c>
       <c r="AE13">
-        <v>563.2</v>
+        <v>614.1</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1845,28 +1848,28 @@
         <v>0</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AI13">
-        <v>520</v>
+        <v>736</v>
       </c>
       <c r="AJ13">
-        <v>3100</v>
+        <v>3471</v>
       </c>
       <c r="AK13">
         <v>197</v>
       </c>
       <c r="AL13">
-        <v>839.4</v>
+        <v>626.6</v>
       </c>
       <c r="AM13">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="AN13">
-        <v>37.1</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="AO13">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="14" spans="1:41">
@@ -1875,13 +1878,13 @@
         <v>30</v>
       </c>
       <c r="C14">
-        <v>61363</v>
+        <v>72063</v>
       </c>
       <c r="D14">
-        <v>607.6</v>
+        <v>713.5</v>
       </c>
       <c r="E14">
-        <v>1033.9</v>
+        <v>1214.9</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1890,37 +1893,37 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="I14">
-        <v>791</v>
+        <v>948</v>
       </c>
       <c r="J14">
-        <v>5793</v>
+        <v>6588</v>
       </c>
       <c r="K14">
         <v>101</v>
       </c>
       <c r="L14">
-        <v>1006</v>
+        <v>1201</v>
       </c>
       <c r="M14">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N14">
-        <v>60.4</v>
+        <v>59.4</v>
       </c>
       <c r="O14">
         <v>0.3</v>
       </c>
       <c r="P14">
-        <v>11708</v>
+        <v>13377</v>
       </c>
       <c r="Q14">
-        <v>115.9</v>
+        <v>132.4</v>
       </c>
       <c r="R14">
-        <v>232.2</v>
+        <v>268.3</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -1929,37 +1932,37 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V14">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="W14">
-        <v>1312</v>
+        <v>1567</v>
       </c>
       <c r="X14">
         <v>101</v>
       </c>
       <c r="Y14">
-        <v>188.8</v>
+        <v>219.3</v>
       </c>
       <c r="Z14">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA14">
-        <v>61.4</v>
+        <v>60.4</v>
       </c>
       <c r="AB14">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AC14">
-        <v>63873</v>
+        <v>57281</v>
       </c>
       <c r="AD14">
-        <v>632.4</v>
+        <v>567.1</v>
       </c>
       <c r="AE14">
-        <v>1610.8</v>
+        <v>716.3</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -1968,28 +1971,28 @@
         <v>0</v>
       </c>
       <c r="AH14">
-        <v>52</v>
+        <v>306</v>
       </c>
       <c r="AI14">
-        <v>602</v>
+        <v>777</v>
       </c>
       <c r="AJ14">
-        <v>13336</v>
+        <v>3498</v>
       </c>
       <c r="AK14">
         <v>101</v>
       </c>
       <c r="AL14">
-        <v>1252.4</v>
+        <v>830.2</v>
       </c>
       <c r="AM14">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="AN14">
-        <v>50.5</v>
+        <v>68.3</v>
       </c>
       <c r="AO14">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="15" spans="1:41">
@@ -1998,13 +2001,13 @@
         <v>31</v>
       </c>
       <c r="C15">
-        <v>119162</v>
+        <v>137479</v>
       </c>
       <c r="D15">
-        <v>945.7</v>
+        <v>1091.1</v>
       </c>
       <c r="E15">
-        <v>2308.9</v>
+        <v>2766.5</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -2013,37 +2016,37 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>210.5</v>
+        <v>225</v>
       </c>
       <c r="I15">
-        <v>1155</v>
+        <v>1378.8</v>
       </c>
       <c r="J15">
-        <v>18330</v>
+        <v>23112</v>
       </c>
       <c r="K15">
         <v>126</v>
       </c>
       <c r="L15">
-        <v>1418.6</v>
+        <v>1676.6</v>
       </c>
       <c r="M15">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N15">
-        <v>66.7</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="O15">
         <v>0.6</v>
       </c>
       <c r="P15">
-        <v>28476</v>
+        <v>31631</v>
       </c>
       <c r="Q15">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="R15">
-        <v>560.8</v>
+        <v>644.1</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -2052,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>30.5</v>
+        <v>32.5</v>
       </c>
       <c r="V15">
-        <v>222.2</v>
+        <v>245</v>
       </c>
       <c r="W15">
-        <v>4588</v>
+        <v>5485</v>
       </c>
       <c r="X15">
         <v>126</v>
       </c>
       <c r="Y15">
-        <v>327.3</v>
+        <v>363.6</v>
       </c>
       <c r="Z15">
         <v>87</v>
@@ -2076,13 +2079,13 @@
         <v>0.7</v>
       </c>
       <c r="AC15">
-        <v>48865</v>
+        <v>65581</v>
       </c>
       <c r="AD15">
-        <v>387.8</v>
+        <v>520.5</v>
       </c>
       <c r="AE15">
-        <v>693.6</v>
+        <v>641.4</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2091,28 +2094,28 @@
         <v>0</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="AI15">
-        <v>635.8</v>
+        <v>833.2</v>
       </c>
       <c r="AJ15">
-        <v>5694</v>
+        <v>2973</v>
       </c>
       <c r="AK15">
         <v>126</v>
       </c>
       <c r="AL15">
-        <v>842.5</v>
+        <v>762.6</v>
       </c>
       <c r="AM15">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="AN15">
-        <v>46</v>
+        <v>68.3</v>
       </c>
       <c r="AO15">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="16" spans="1:41">
@@ -2121,13 +2124,13 @@
         <v>32</v>
       </c>
       <c r="C16">
-        <v>151547</v>
+        <v>164927</v>
       </c>
       <c r="D16">
-        <v>1139.5</v>
+        <v>1240.1</v>
       </c>
       <c r="E16">
-        <v>1799.3</v>
+        <v>2004.5</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2136,37 +2139,37 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>450</v>
+        <v>557</v>
       </c>
       <c r="I16">
-        <v>1462</v>
+        <v>1618</v>
       </c>
       <c r="J16">
-        <v>10957</v>
+        <v>13083</v>
       </c>
       <c r="K16">
         <v>133</v>
       </c>
       <c r="L16">
-        <v>1629.5</v>
+        <v>1812.4</v>
       </c>
       <c r="M16">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N16">
-        <v>69.90000000000001</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="O16">
         <v>0.8</v>
       </c>
       <c r="P16">
-        <v>74043</v>
+        <v>78930</v>
       </c>
       <c r="Q16">
-        <v>556.7</v>
+        <v>593.5</v>
       </c>
       <c r="R16">
-        <v>1421.2</v>
+        <v>1537.8</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -2175,37 +2178,37 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="V16">
-        <v>410</v>
+        <v>433</v>
       </c>
       <c r="W16">
-        <v>12827</v>
+        <v>13652</v>
       </c>
       <c r="X16">
         <v>133</v>
       </c>
       <c r="Y16">
-        <v>771.3</v>
+        <v>839.7</v>
       </c>
       <c r="Z16">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AA16">
-        <v>72.2</v>
+        <v>70.7</v>
       </c>
       <c r="AB16">
         <v>0.8</v>
       </c>
       <c r="AC16">
-        <v>53838</v>
+        <v>75436</v>
       </c>
       <c r="AD16">
-        <v>404.8</v>
+        <v>567.2</v>
       </c>
       <c r="AE16">
-        <v>730.5</v>
+        <v>700</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2214,28 +2217,28 @@
         <v>0</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="AI16">
-        <v>525</v>
+        <v>870</v>
       </c>
       <c r="AJ16">
-        <v>5746</v>
+        <v>4105</v>
       </c>
       <c r="AK16">
         <v>133</v>
       </c>
       <c r="AL16">
-        <v>828.3</v>
+        <v>802.5</v>
       </c>
       <c r="AM16">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="AN16">
-        <v>48.9</v>
+        <v>70.7</v>
       </c>
       <c r="AO16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:41">
@@ -2246,13 +2249,13 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>1479</v>
+        <v>1929</v>
       </c>
       <c r="D17">
-        <v>64.3</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="E17">
-        <v>251.1</v>
+        <v>343.5</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -2267,13 +2270,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1200</v>
+        <v>1648</v>
       </c>
       <c r="K17">
         <v>23</v>
       </c>
       <c r="L17">
-        <v>369.8</v>
+        <v>482.2</v>
       </c>
       <c r="M17">
         <v>4</v>
@@ -2285,13 +2288,13 @@
         <v>-2.1</v>
       </c>
       <c r="P17">
-        <v>500</v>
+        <v>698</v>
       </c>
       <c r="Q17">
-        <v>21.7</v>
+        <v>30.3</v>
       </c>
       <c r="R17">
-        <v>93</v>
+        <v>133.8</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -2306,13 +2309,13 @@
         <v>0</v>
       </c>
       <c r="W17">
-        <v>447</v>
+        <v>643</v>
       </c>
       <c r="X17">
         <v>23</v>
       </c>
       <c r="Y17">
-        <v>125</v>
+        <v>174.5</v>
       </c>
       <c r="Z17">
         <v>4</v>
@@ -2324,13 +2327,13 @@
         <v>-2.1</v>
       </c>
       <c r="AC17">
-        <v>842</v>
+        <v>2230</v>
       </c>
       <c r="AD17">
-        <v>36.6</v>
+        <v>97</v>
       </c>
       <c r="AE17">
-        <v>135.2</v>
+        <v>256.2</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2345,22 +2348,22 @@
         <v>0</v>
       </c>
       <c r="AJ17">
-        <v>619</v>
+        <v>981</v>
       </c>
       <c r="AK17">
         <v>23</v>
       </c>
       <c r="AL17">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="AM17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AN17">
-        <v>8.699999999999999</v>
+        <v>21.7</v>
       </c>
       <c r="AO17">
-        <v>-1.8</v>
+        <v>-2.8</v>
       </c>
     </row>
     <row r="18" spans="1:41">
@@ -2369,13 +2372,13 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>45229</v>
+        <v>51283</v>
       </c>
       <c r="D18">
-        <v>359</v>
+        <v>407</v>
       </c>
       <c r="E18">
-        <v>884.1</v>
+        <v>977.7</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -2387,34 +2390,34 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>221</v>
+        <v>256.5</v>
       </c>
       <c r="J18">
-        <v>6379</v>
+        <v>6927</v>
       </c>
       <c r="K18">
         <v>126</v>
       </c>
       <c r="L18">
-        <v>807.7</v>
+        <v>899.7</v>
       </c>
       <c r="M18">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N18">
-        <v>44.4</v>
+        <v>45.2</v>
       </c>
       <c r="O18">
-        <v>-0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="P18">
-        <v>18688</v>
+        <v>20897</v>
       </c>
       <c r="Q18">
-        <v>148.3</v>
+        <v>165.8</v>
       </c>
       <c r="R18">
-        <v>453.7</v>
+        <v>500.5</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -2426,16 +2429,16 @@
         <v>0</v>
       </c>
       <c r="V18">
-        <v>50.8</v>
+        <v>64.8</v>
       </c>
       <c r="W18">
-        <v>3807</v>
+        <v>4177</v>
       </c>
       <c r="X18">
         <v>126</v>
       </c>
       <c r="Y18">
-        <v>311.5</v>
+        <v>348.3</v>
       </c>
       <c r="Z18">
         <v>60</v>
@@ -2444,16 +2447,16 @@
         <v>47.6</v>
       </c>
       <c r="AB18">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="AC18">
-        <v>25845</v>
+        <v>54325</v>
       </c>
       <c r="AD18">
-        <v>205.1</v>
+        <v>431.2</v>
       </c>
       <c r="AE18">
-        <v>457</v>
+        <v>775.1</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2462,28 +2465,28 @@
         <v>0</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI18">
-        <v>131</v>
+        <v>581.5</v>
       </c>
       <c r="AJ18">
-        <v>2696</v>
+        <v>4927</v>
       </c>
       <c r="AK18">
         <v>126</v>
       </c>
       <c r="AL18">
-        <v>717.9</v>
+        <v>787.3</v>
       </c>
       <c r="AM18">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AN18">
-        <v>28.6</v>
+        <v>54.8</v>
       </c>
       <c r="AO18">
-        <v>-0.4</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="19" spans="1:41">
@@ -2492,13 +2495,13 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>58170</v>
+        <v>68516</v>
       </c>
       <c r="D19">
-        <v>325</v>
+        <v>382.8</v>
       </c>
       <c r="E19">
-        <v>813.8</v>
+        <v>960.2</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -2510,16 +2513,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>215.5</v>
+        <v>267</v>
       </c>
       <c r="J19">
-        <v>6108</v>
+        <v>7355</v>
       </c>
       <c r="K19">
         <v>179</v>
       </c>
       <c r="L19">
-        <v>661</v>
+        <v>778.6</v>
       </c>
       <c r="M19">
         <v>88</v>
@@ -2531,13 +2534,13 @@
         <v>-0.3</v>
       </c>
       <c r="P19">
-        <v>18198</v>
+        <v>21499</v>
       </c>
       <c r="Q19">
-        <v>101.7</v>
+        <v>120.1</v>
       </c>
       <c r="R19">
-        <v>414.9</v>
+        <v>475.4</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -2549,16 +2552,16 @@
         <v>0</v>
       </c>
       <c r="V19">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="W19">
-        <v>4541</v>
+        <v>5181</v>
       </c>
       <c r="X19">
         <v>179</v>
       </c>
       <c r="Y19">
-        <v>206.8</v>
+        <v>244.3</v>
       </c>
       <c r="Z19">
         <v>88</v>
@@ -2570,13 +2573,13 @@
         <v>-0.4</v>
       </c>
       <c r="AC19">
-        <v>27339</v>
+        <v>51558</v>
       </c>
       <c r="AD19">
-        <v>152.7</v>
+        <v>288</v>
       </c>
       <c r="AE19">
-        <v>361.6</v>
+        <v>477.8</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2585,25 +2588,25 @@
         <v>0</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="AI19">
-        <v>6</v>
+        <v>378</v>
       </c>
       <c r="AJ19">
-        <v>2234</v>
+        <v>2680</v>
       </c>
       <c r="AK19">
         <v>179</v>
       </c>
       <c r="AL19">
-        <v>607.5</v>
+        <v>537.1</v>
       </c>
       <c r="AM19">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="AN19">
-        <v>25.1</v>
+        <v>53.6</v>
       </c>
       <c r="AO19">
         <v>-0.6</v>
@@ -2615,13 +2618,13 @@
         <v>33</v>
       </c>
       <c r="C20">
-        <v>50940</v>
+        <v>55848</v>
       </c>
       <c r="D20">
-        <v>3396</v>
+        <v>3723.2</v>
       </c>
       <c r="E20">
-        <v>12233.9</v>
+        <v>13441.8</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -2636,13 +2639,13 @@
         <v>51.5</v>
       </c>
       <c r="J20">
-        <v>47571</v>
+        <v>52263</v>
       </c>
       <c r="K20">
         <v>15</v>
       </c>
       <c r="L20">
-        <v>10188</v>
+        <v>11169.6</v>
       </c>
       <c r="M20">
         <v>5</v>
@@ -2654,13 +2657,13 @@
         <v>-1.2</v>
       </c>
       <c r="P20">
-        <v>21724</v>
+        <v>25527</v>
       </c>
       <c r="Q20">
-        <v>1448.3</v>
+        <v>1701.8</v>
       </c>
       <c r="R20">
-        <v>5378.6</v>
+        <v>6341.5</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -2672,16 +2675,16 @@
         <v>0</v>
       </c>
       <c r="V20">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="W20">
-        <v>20884</v>
+        <v>24618</v>
       </c>
       <c r="X20">
         <v>15</v>
       </c>
       <c r="Y20">
-        <v>4344.8</v>
+        <v>5105.4</v>
       </c>
       <c r="Z20">
         <v>5</v>
@@ -2693,13 +2696,13 @@
         <v>-1.2</v>
       </c>
       <c r="AC20">
-        <v>675</v>
+        <v>1993</v>
       </c>
       <c r="AD20">
-        <v>45</v>
+        <v>132.9</v>
       </c>
       <c r="AE20">
-        <v>174.3</v>
+        <v>305.3</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2711,25 +2714,25 @@
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="AJ20">
-        <v>675</v>
+        <v>932</v>
       </c>
       <c r="AK20">
         <v>15</v>
       </c>
       <c r="AL20">
-        <v>675</v>
+        <v>398.6</v>
       </c>
       <c r="AM20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AN20">
-        <v>6.7</v>
+        <v>33.3</v>
       </c>
       <c r="AO20">
-        <v>-1.9</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="21" spans="1:41">
@@ -2738,13 +2741,13 @@
         <v>23</v>
       </c>
       <c r="C21">
-        <v>136411</v>
+        <v>162327</v>
       </c>
       <c r="D21">
-        <v>1156</v>
+        <v>1375.7</v>
       </c>
       <c r="E21">
-        <v>2362.9</v>
+        <v>2861.6</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2753,19 +2756,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="I21">
-        <v>1470.5</v>
+        <v>1765</v>
       </c>
       <c r="J21">
-        <v>19900</v>
+        <v>24791</v>
       </c>
       <c r="K21">
         <v>118</v>
       </c>
       <c r="L21">
-        <v>1748.9</v>
+        <v>2081.1</v>
       </c>
       <c r="M21">
         <v>78</v>
@@ -2777,13 +2780,13 @@
         <v>0.6</v>
       </c>
       <c r="P21">
-        <v>86777</v>
+        <v>102423</v>
       </c>
       <c r="Q21">
-        <v>735.4</v>
+        <v>868</v>
       </c>
       <c r="R21">
-        <v>2427.9</v>
+        <v>2827.7</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -2792,19 +2795,19 @@
         <v>0</v>
       </c>
       <c r="U21">
-        <v>29.5</v>
+        <v>41</v>
       </c>
       <c r="V21">
-        <v>378.2</v>
+        <v>432.2</v>
       </c>
       <c r="W21">
-        <v>20111</v>
+        <v>22462</v>
       </c>
       <c r="X21">
         <v>118</v>
       </c>
       <c r="Y21">
-        <v>1127</v>
+        <v>1330.2</v>
       </c>
       <c r="Z21">
         <v>77</v>
@@ -2816,13 +2819,13 @@
         <v>0.5</v>
       </c>
       <c r="AC21">
-        <v>58042</v>
+        <v>54874</v>
       </c>
       <c r="AD21">
-        <v>491.9</v>
+        <v>465</v>
       </c>
       <c r="AE21">
-        <v>1272.7</v>
+        <v>604</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2831,28 +2834,28 @@
         <v>0</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="AI21">
-        <v>617.2</v>
+        <v>822.5</v>
       </c>
       <c r="AJ21">
-        <v>8880</v>
+        <v>3423</v>
       </c>
       <c r="AK21">
         <v>118</v>
       </c>
       <c r="AL21">
-        <v>1116.2</v>
+        <v>694.6</v>
       </c>
       <c r="AM21">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="AN21">
-        <v>44.1</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="AO21">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="22" spans="1:41">
@@ -2861,13 +2864,13 @@
         <v>24</v>
       </c>
       <c r="C22">
-        <v>24937</v>
+        <v>31214</v>
       </c>
       <c r="D22">
-        <v>566.8</v>
+        <v>709.4</v>
       </c>
       <c r="E22">
-        <v>1280.9</v>
+        <v>1809.7</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2876,37 +2879,37 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>40.5</v>
+        <v>12.5</v>
       </c>
       <c r="I22">
-        <v>567</v>
+        <v>730.5</v>
       </c>
       <c r="J22">
-        <v>7613</v>
+        <v>11368</v>
       </c>
       <c r="K22">
         <v>44</v>
       </c>
       <c r="L22">
-        <v>1039</v>
+        <v>1357.1</v>
       </c>
       <c r="M22">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N22">
-        <v>54.5</v>
+        <v>52.3</v>
       </c>
       <c r="O22">
         <v>-0.1</v>
       </c>
       <c r="P22">
-        <v>8527</v>
+        <v>10012</v>
       </c>
       <c r="Q22">
-        <v>193.8</v>
+        <v>227.5</v>
       </c>
       <c r="R22">
-        <v>413.1</v>
+        <v>508.3</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -2915,37 +2918,37 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>9.5</v>
+        <v>12.5</v>
       </c>
       <c r="V22">
-        <v>211</v>
+        <v>246.2</v>
       </c>
       <c r="W22">
-        <v>1866</v>
+        <v>2288</v>
       </c>
       <c r="X22">
         <v>44</v>
       </c>
       <c r="Y22">
-        <v>328</v>
+        <v>400.5</v>
       </c>
       <c r="Z22">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA22">
-        <v>59.1</v>
+        <v>56.8</v>
       </c>
       <c r="AB22">
         <v>0.1</v>
       </c>
       <c r="AC22">
-        <v>12047</v>
+        <v>20901</v>
       </c>
       <c r="AD22">
-        <v>273.8</v>
+        <v>475</v>
       </c>
       <c r="AE22">
-        <v>495.6</v>
+        <v>722.4</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2954,28 +2957,28 @@
         <v>0</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="AI22">
-        <v>323.5</v>
+        <v>761.8</v>
       </c>
       <c r="AJ22">
-        <v>1774</v>
+        <v>3251</v>
       </c>
       <c r="AK22">
         <v>44</v>
       </c>
       <c r="AL22">
-        <v>860.5</v>
+        <v>836</v>
       </c>
       <c r="AM22">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="AN22">
-        <v>31.8</v>
+        <v>56.8</v>
       </c>
       <c r="AO22">
-        <v>-0.2</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="23" spans="1:41">
@@ -2984,13 +2987,13 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <v>70541</v>
+        <v>83660</v>
       </c>
       <c r="D23">
-        <v>624.3</v>
+        <v>740.4</v>
       </c>
       <c r="E23">
-        <v>1586</v>
+        <v>1940.2</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -2999,19 +3002,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="I23">
-        <v>572</v>
+        <v>710</v>
       </c>
       <c r="J23">
-        <v>14101</v>
+        <v>17617</v>
       </c>
       <c r="K23">
         <v>113</v>
       </c>
       <c r="L23">
-        <v>1068.8</v>
+        <v>1267.6</v>
       </c>
       <c r="M23">
         <v>66</v>
@@ -3023,13 +3026,13 @@
         <v>0.2</v>
       </c>
       <c r="P23">
-        <v>38272</v>
+        <v>47672</v>
       </c>
       <c r="Q23">
-        <v>338.7</v>
+        <v>421.9</v>
       </c>
       <c r="R23">
-        <v>1864.3</v>
+        <v>2343.8</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -3041,64 +3044,64 @@
         <v>7</v>
       </c>
       <c r="V23">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="W23">
-        <v>19557</v>
+        <v>24554</v>
       </c>
       <c r="X23">
         <v>113</v>
       </c>
       <c r="Y23">
-        <v>531.6</v>
+        <v>653</v>
       </c>
       <c r="Z23">
+        <v>73</v>
+      </c>
+      <c r="AA23">
+        <v>64.59999999999999</v>
+      </c>
+      <c r="AB23">
+        <v>0.5</v>
+      </c>
+      <c r="AC23">
+        <v>46342</v>
+      </c>
+      <c r="AD23">
+        <v>410.1</v>
+      </c>
+      <c r="AE23">
+        <v>682.3</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
         <v>72</v>
       </c>
-      <c r="AA23">
-        <v>63.7</v>
-      </c>
-      <c r="AB23">
-        <v>0.4</v>
-      </c>
-      <c r="AC23">
-        <v>63430</v>
-      </c>
-      <c r="AD23">
-        <v>561.3</v>
-      </c>
-      <c r="AE23">
-        <v>1998.6</v>
-      </c>
-      <c r="AF23">
-        <v>0</v>
-      </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
-      <c r="AH23">
-        <v>0</v>
-      </c>
       <c r="AI23">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="AJ23">
-        <v>20246</v>
+        <v>4356</v>
       </c>
       <c r="AK23">
         <v>113</v>
       </c>
       <c r="AL23">
-        <v>1153.3</v>
+        <v>671.6</v>
       </c>
       <c r="AM23">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="AN23">
-        <v>48.7</v>
+        <v>61.1</v>
       </c>
       <c r="AO23">
-        <v>1</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="24" spans="1:41">
@@ -3107,13 +3110,13 @@
         <v>26</v>
       </c>
       <c r="C24">
-        <v>24296</v>
+        <v>29308</v>
       </c>
       <c r="D24">
-        <v>458.4</v>
+        <v>553</v>
       </c>
       <c r="E24">
-        <v>1113.8</v>
+        <v>1332.4</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -3125,16 +3128,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>269</v>
+        <v>368</v>
       </c>
       <c r="J24">
-        <v>5535</v>
+        <v>6402</v>
       </c>
       <c r="K24">
         <v>53</v>
       </c>
       <c r="L24">
-        <v>934.5</v>
+        <v>1127.2</v>
       </c>
       <c r="M24">
         <v>26</v>
@@ -3146,13 +3149,13 @@
         <v>-0.3</v>
       </c>
       <c r="P24">
-        <v>5079</v>
+        <v>6425</v>
       </c>
       <c r="Q24">
-        <v>95.8</v>
+        <v>121.2</v>
       </c>
       <c r="R24">
-        <v>205</v>
+        <v>255.3</v>
       </c>
       <c r="S24">
         <v>0</v>
@@ -3164,16 +3167,16 @@
         <v>0</v>
       </c>
       <c r="V24">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="W24">
-        <v>915</v>
+        <v>1182</v>
       </c>
       <c r="X24">
         <v>53</v>
       </c>
       <c r="Y24">
-        <v>220.8</v>
+        <v>279.3</v>
       </c>
       <c r="Z24">
         <v>23</v>
@@ -3185,13 +3188,13 @@
         <v>-0.7</v>
       </c>
       <c r="AC24">
-        <v>27526</v>
+        <v>20215</v>
       </c>
       <c r="AD24">
-        <v>519.4</v>
+        <v>381.4</v>
       </c>
       <c r="AE24">
-        <v>1431.5</v>
+        <v>473.1</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -3200,28 +3203,28 @@
         <v>0</v>
       </c>
       <c r="AH24">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AI24">
-        <v>537</v>
+        <v>697</v>
       </c>
       <c r="AJ24">
-        <v>7664</v>
+        <v>1627</v>
       </c>
       <c r="AK24">
         <v>53</v>
       </c>
       <c r="AL24">
-        <v>1529.2</v>
+        <v>697.1</v>
       </c>
       <c r="AM24">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="AN24">
-        <v>34</v>
+        <v>54.7</v>
       </c>
       <c r="AO24">
-        <v>-0</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="25" spans="1:41">
@@ -3230,13 +3233,13 @@
         <v>27</v>
       </c>
       <c r="C25">
-        <v>81255</v>
+        <v>96445</v>
       </c>
       <c r="D25">
-        <v>335.8</v>
+        <v>398.5</v>
       </c>
       <c r="E25">
-        <v>942.4</v>
+        <v>1113.9</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -3248,34 +3251,34 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>299</v>
+        <v>348</v>
       </c>
       <c r="J25">
-        <v>8541</v>
+        <v>9810</v>
       </c>
       <c r="K25">
         <v>242</v>
       </c>
       <c r="L25">
-        <v>759.4</v>
+        <v>909.9</v>
       </c>
       <c r="M25">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N25">
-        <v>44.2</v>
+        <v>43.8</v>
       </c>
       <c r="O25">
         <v>-0.6</v>
       </c>
       <c r="P25">
-        <v>28799</v>
+        <v>33629</v>
       </c>
       <c r="Q25">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="R25">
-        <v>546.1</v>
+        <v>630.2</v>
       </c>
       <c r="S25">
         <v>0</v>
@@ -3287,34 +3290,34 @@
         <v>0</v>
       </c>
       <c r="V25">
-        <v>47</v>
+        <v>53.8</v>
       </c>
       <c r="W25">
-        <v>6050</v>
+        <v>6901</v>
       </c>
       <c r="X25">
         <v>242</v>
       </c>
       <c r="Y25">
-        <v>257.1</v>
+        <v>303</v>
       </c>
       <c r="Z25">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AA25">
-        <v>46.3</v>
+        <v>45.9</v>
       </c>
       <c r="AB25">
         <v>-0.5</v>
       </c>
       <c r="AC25">
-        <v>88300</v>
+        <v>73772</v>
       </c>
       <c r="AD25">
-        <v>364.9</v>
+        <v>304.8</v>
       </c>
       <c r="AE25">
-        <v>2431.5</v>
+        <v>587.6</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -3323,28 +3326,28 @@
         <v>0</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AI25">
-        <v>0</v>
+        <v>449.2</v>
       </c>
       <c r="AJ25">
-        <v>36858</v>
+        <v>6193</v>
       </c>
       <c r="AK25">
         <v>242</v>
       </c>
       <c r="AL25">
-        <v>1549.1</v>
+        <v>567.5</v>
       </c>
       <c r="AM25">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="AN25">
-        <v>23.6</v>
+        <v>53.7</v>
       </c>
       <c r="AO25">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="26" spans="1:41">
@@ -3353,13 +3356,13 @@
         <v>28</v>
       </c>
       <c r="C26">
-        <v>134853</v>
+        <v>159725</v>
       </c>
       <c r="D26">
-        <v>548.2</v>
+        <v>649.3</v>
       </c>
       <c r="E26">
-        <v>1338.5</v>
+        <v>1617</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -3371,34 +3374,34 @@
         <v>19</v>
       </c>
       <c r="I26">
-        <v>502</v>
+        <v>554.2</v>
       </c>
       <c r="J26">
-        <v>14118</v>
+        <v>16882</v>
       </c>
       <c r="K26">
         <v>246</v>
       </c>
       <c r="L26">
-        <v>956.4</v>
+        <v>1140.9</v>
       </c>
       <c r="M26">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N26">
-        <v>57.3</v>
+        <v>56.9</v>
       </c>
       <c r="O26">
         <v>0.1</v>
       </c>
       <c r="P26">
-        <v>40489</v>
+        <v>47529</v>
       </c>
       <c r="Q26">
-        <v>164.6</v>
+        <v>193.2</v>
       </c>
       <c r="R26">
-        <v>431.3</v>
+        <v>521.2</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -3410,34 +3413,34 @@
         <v>5</v>
       </c>
       <c r="V26">
-        <v>87.8</v>
+        <v>96.8</v>
       </c>
       <c r="W26">
-        <v>3532</v>
+        <v>4641</v>
       </c>
       <c r="X26">
         <v>246</v>
       </c>
       <c r="Y26">
-        <v>289.2</v>
+        <v>330.1</v>
       </c>
       <c r="Z26">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AA26">
-        <v>56.9</v>
+        <v>58.5</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC26">
-        <v>56844</v>
+        <v>82679</v>
       </c>
       <c r="AD26">
-        <v>231.1</v>
+        <v>336.1</v>
       </c>
       <c r="AE26">
-        <v>602.8</v>
+        <v>582.6</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3446,28 +3449,28 @@
         <v>0</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AI26">
-        <v>25.5</v>
+        <v>368.8</v>
       </c>
       <c r="AJ26">
-        <v>6047</v>
+        <v>3726</v>
       </c>
       <c r="AK26">
         <v>246</v>
       </c>
       <c r="AL26">
-        <v>902.3</v>
+        <v>578.2</v>
       </c>
       <c r="AM26">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="AN26">
-        <v>25.6</v>
+        <v>58.1</v>
       </c>
       <c r="AO26">
-        <v>-0.6</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="27" spans="1:41">
@@ -3476,13 +3479,13 @@
         <v>29</v>
       </c>
       <c r="C27">
-        <v>70997</v>
+        <v>81102</v>
       </c>
       <c r="D27">
-        <v>315.5</v>
+        <v>360.5</v>
       </c>
       <c r="E27">
-        <v>754.9</v>
+        <v>847.4</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -3494,34 +3497,34 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>351</v>
+        <v>378</v>
       </c>
       <c r="J27">
-        <v>7022</v>
+        <v>7930</v>
       </c>
       <c r="K27">
         <v>225</v>
       </c>
       <c r="L27">
-        <v>657.4</v>
+        <v>744.1</v>
       </c>
       <c r="M27">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N27">
-        <v>48</v>
+        <v>48.4</v>
       </c>
       <c r="O27">
         <v>-0.4</v>
       </c>
       <c r="P27">
-        <v>18936</v>
+        <v>21445</v>
       </c>
       <c r="Q27">
-        <v>84.2</v>
+        <v>95.3</v>
       </c>
       <c r="R27">
-        <v>225.7</v>
+        <v>252.8</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -3533,34 +3536,34 @@
         <v>0</v>
       </c>
       <c r="V27">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="W27">
-        <v>1717</v>
+        <v>2067</v>
       </c>
       <c r="X27">
         <v>225</v>
       </c>
       <c r="Y27">
-        <v>170.6</v>
+        <v>191.5</v>
       </c>
       <c r="Z27">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA27">
-        <v>49.3</v>
+        <v>49.8</v>
       </c>
       <c r="AB27">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="AC27">
-        <v>78999</v>
+        <v>68712</v>
       </c>
       <c r="AD27">
-        <v>351.1</v>
+        <v>305.4</v>
       </c>
       <c r="AE27">
-        <v>2492.8</v>
+        <v>534.8</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3569,28 +3572,28 @@
         <v>0</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="AI27">
-        <v>57</v>
+        <v>404</v>
       </c>
       <c r="AJ27">
-        <v>36948</v>
+        <v>5226</v>
       </c>
       <c r="AK27">
         <v>225</v>
       </c>
       <c r="AL27">
-        <v>1339</v>
+        <v>505.2</v>
       </c>
       <c r="AM27">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="AN27">
-        <v>26.2</v>
+        <v>60.4</v>
       </c>
       <c r="AO27">
-        <v>-0.6</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="28" spans="1:41">
@@ -3599,13 +3602,13 @@
         <v>30</v>
       </c>
       <c r="C28">
-        <v>35940</v>
+        <v>42984</v>
       </c>
       <c r="D28">
-        <v>339.1</v>
+        <v>405.5</v>
       </c>
       <c r="E28">
-        <v>783.8</v>
+        <v>977.1</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -3617,34 +3620,34 @@
         <v>2</v>
       </c>
       <c r="I28">
-        <v>278.8</v>
+        <v>355.5</v>
       </c>
       <c r="J28">
-        <v>4906</v>
+        <v>6478</v>
       </c>
       <c r="K28">
         <v>106</v>
       </c>
       <c r="L28">
-        <v>653.5</v>
+        <v>767.6</v>
       </c>
       <c r="M28">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N28">
-        <v>51.9</v>
+        <v>52.8</v>
       </c>
       <c r="O28">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="P28">
-        <v>7521</v>
+        <v>9034</v>
       </c>
       <c r="Q28">
-        <v>71</v>
+        <v>85.2</v>
       </c>
       <c r="R28">
-        <v>321.9</v>
+        <v>408.1</v>
       </c>
       <c r="S28">
         <v>0</v>
@@ -3656,16 +3659,16 @@
         <v>1</v>
       </c>
       <c r="V28">
-        <v>23.2</v>
+        <v>24.8</v>
       </c>
       <c r="W28">
-        <v>3183</v>
+        <v>4083</v>
       </c>
       <c r="X28">
         <v>106</v>
       </c>
       <c r="Y28">
-        <v>136.7</v>
+        <v>164.3</v>
       </c>
       <c r="Z28">
         <v>55</v>
@@ -3677,13 +3680,13 @@
         <v>-0.2</v>
       </c>
       <c r="AC28">
-        <v>41003</v>
+        <v>34514</v>
       </c>
       <c r="AD28">
-        <v>386.8</v>
+        <v>325.6</v>
       </c>
       <c r="AE28">
-        <v>1407.2</v>
+        <v>614.5</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3692,28 +3695,28 @@
         <v>0</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AI28">
-        <v>250.8</v>
+        <v>379.8</v>
       </c>
       <c r="AJ28">
-        <v>13336</v>
+        <v>3597</v>
       </c>
       <c r="AK28">
         <v>106</v>
       </c>
       <c r="AL28">
-        <v>1051.4</v>
+        <v>585</v>
       </c>
       <c r="AM28">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="AN28">
-        <v>36.8</v>
+        <v>55.7</v>
       </c>
       <c r="AO28">
-        <v>0.2</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="29" spans="1:41">
@@ -3722,13 +3725,13 @@
         <v>31</v>
       </c>
       <c r="C29">
-        <v>40902</v>
+        <v>49579</v>
       </c>
       <c r="D29">
-        <v>401</v>
+        <v>486.1</v>
       </c>
       <c r="E29">
-        <v>894.3</v>
+        <v>1119.3</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -3740,34 +3743,34 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>218.8</v>
+        <v>247.5</v>
       </c>
       <c r="J29">
-        <v>4765</v>
+        <v>6036</v>
       </c>
       <c r="K29">
         <v>102</v>
       </c>
       <c r="L29">
-        <v>908.9</v>
+        <v>1126.8</v>
       </c>
       <c r="M29">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N29">
-        <v>44.1</v>
+        <v>43.1</v>
       </c>
       <c r="O29">
         <v>-0.6</v>
       </c>
       <c r="P29">
-        <v>20853</v>
+        <v>25849</v>
       </c>
       <c r="Q29">
-        <v>204.4</v>
+        <v>253.4</v>
       </c>
       <c r="R29">
-        <v>1149.5</v>
+        <v>1437.3</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -3779,34 +3782,34 @@
         <v>0</v>
       </c>
       <c r="V29">
-        <v>44</v>
+        <v>49.8</v>
       </c>
       <c r="W29">
-        <v>11227</v>
+        <v>13956</v>
       </c>
       <c r="X29">
         <v>102</v>
       </c>
       <c r="Y29">
-        <v>443.7</v>
+        <v>561.9</v>
       </c>
       <c r="Z29">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA29">
-        <v>46.1</v>
+        <v>45.1</v>
       </c>
       <c r="AB29">
-        <v>-0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="AC29">
-        <v>19637</v>
+        <v>33083</v>
       </c>
       <c r="AD29">
-        <v>192.5</v>
+        <v>324.3</v>
       </c>
       <c r="AE29">
-        <v>675.1</v>
+        <v>613.4</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3815,28 +3818,28 @@
         <v>0</v>
       </c>
       <c r="AH29">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AI29">
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="AJ29">
-        <v>6145</v>
+        <v>3366</v>
       </c>
       <c r="AK29">
         <v>102</v>
       </c>
       <c r="AL29">
-        <v>853.8</v>
+        <v>648.7</v>
       </c>
       <c r="AM29">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AN29">
-        <v>22.5</v>
+        <v>50</v>
       </c>
       <c r="AO29">
-        <v>-0.8</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="30" spans="1:41">
@@ -3845,13 +3848,13 @@
         <v>32</v>
       </c>
       <c r="C30">
-        <v>54041</v>
+        <v>60205</v>
       </c>
       <c r="D30">
-        <v>562.9</v>
+        <v>627.1</v>
       </c>
       <c r="E30">
-        <v>920.1</v>
+        <v>1061</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -3860,37 +3863,37 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>73</v>
+        <v>71.5</v>
       </c>
       <c r="I30">
-        <v>930.5</v>
+        <v>976.8</v>
       </c>
       <c r="J30">
-        <v>3970</v>
+        <v>4961</v>
       </c>
       <c r="K30">
         <v>96</v>
       </c>
       <c r="L30">
-        <v>1039.2</v>
+        <v>1180.5</v>
       </c>
       <c r="M30">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N30">
-        <v>54.2</v>
+        <v>53.1</v>
       </c>
       <c r="O30">
         <v>-0.1</v>
       </c>
       <c r="P30">
-        <v>21685</v>
+        <v>22513</v>
       </c>
       <c r="Q30">
-        <v>225.9</v>
+        <v>234.5</v>
       </c>
       <c r="R30">
-        <v>717.1</v>
+        <v>758.7</v>
       </c>
       <c r="S30">
         <v>0</v>
@@ -3899,37 +3902,37 @@
         <v>0</v>
       </c>
       <c r="U30">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="V30">
-        <v>135.2</v>
+        <v>140.2</v>
       </c>
       <c r="W30">
-        <v>6137</v>
+        <v>6511</v>
       </c>
       <c r="X30">
         <v>96</v>
       </c>
       <c r="Y30">
-        <v>417</v>
+        <v>441.4</v>
       </c>
       <c r="Z30">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA30">
-        <v>54.2</v>
+        <v>53.1</v>
       </c>
       <c r="AB30">
         <v>-0.1</v>
       </c>
       <c r="AC30">
-        <v>53659</v>
+        <v>41637</v>
       </c>
       <c r="AD30">
-        <v>558.9</v>
+        <v>433.7</v>
       </c>
       <c r="AE30">
-        <v>2323</v>
+        <v>633.7</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3938,28 +3941,28 @@
         <v>0</v>
       </c>
       <c r="AH30">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="AI30">
-        <v>331.8</v>
+        <v>752.2</v>
       </c>
       <c r="AJ30">
-        <v>21892</v>
+        <v>3458</v>
       </c>
       <c r="AK30">
         <v>96</v>
       </c>
       <c r="AL30">
-        <v>1490.5</v>
+        <v>640.6</v>
       </c>
       <c r="AM30">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="AN30">
-        <v>37.5</v>
+        <v>67.7</v>
       </c>
       <c r="AO30">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
